--- a/Support Files/JobyCalculations.xlsx
+++ b/Support Files/JobyCalculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cm/Library/Mobile Documents/com~apple~CloudDocs/Developer/Joby New/JobyFirstProject/Support Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A07010-727A-C242-824B-8797E2005FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE6F92B-469D-F04C-8309-C8274C2FFA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-41100" yWindow="-7300" windowWidth="28040" windowHeight="17440" xr2:uid="{E374ADD3-6926-B64B-B374-44C4390C1D34}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Company Name</t>
   </si>
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F903E137-E2B0-1C4E-8D72-C35A1FF81D6E}">
-  <dimension ref="A1:F294"/>
+  <dimension ref="A1:S294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
     <col min="5" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -613,8 +613,39 @@
       <c r="F2" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -633,8 +664,42 @@
       <c r="F3" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>120</v>
+      </c>
+      <c r="K3" s="4">
+        <v>320</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="N3" s="4">
+        <v>4</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
+        <f>K3/M3</f>
+        <v>200</v>
+      </c>
+      <c r="R3" s="6">
+        <f>Q3/J3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S3" s="4">
+        <f>1/O3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -653,8 +718,42 @@
       <c r="F4" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>100</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="4">
+        <v>5</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="6">
+        <f>K4/M4</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="R4" s="6">
+        <f>Q4/J4</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="S4" s="4">
+        <f>1/O4</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -673,8 +772,42 @@
       <c r="F5" s="4">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>160</v>
+      </c>
+      <c r="K5" s="4">
+        <v>220</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
+        <f>K5/M5</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="R5" s="4">
+        <f>Q5/J5</f>
+        <v>0.62499999999999989</v>
+      </c>
+      <c r="S5" s="4">
+        <f>1/O5</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -693,8 +826,42 @@
       <c r="F6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4">
+        <v>90</v>
+      </c>
+      <c r="K6" s="4">
+        <v>120</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <f>K6/M6</f>
+        <v>150</v>
+      </c>
+      <c r="R6" s="6">
+        <f>Q6/J6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="S6" s="6">
+        <f>1/O6</f>
+        <v>4.5454545454545459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -713,8 +880,42 @@
       <c r="F7" s="4">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>30</v>
+      </c>
+      <c r="K7" s="4">
+        <v>150</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="6">
+        <f>K7/M7</f>
+        <v>25.862068965517242</v>
+      </c>
+      <c r="R7" s="6">
+        <f>Q7/J7</f>
+        <v>0.86206896551724144</v>
+      </c>
+      <c r="S7" s="6">
+        <f>1/O7</f>
+        <v>1.639344262295082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -722,7 +923,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -747,7 +948,7 @@
         <v>25.862068965517242</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -772,7 +973,7 @@
         <v>0.86206896551724144</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -796,13 +997,17 @@
         <f t="shared" si="2"/>
         <v>1.639344262295082</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <f>LN(1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
@@ -813,7 +1018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
@@ -821,7150 +1026,7150 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B16">
         <f ca="1">AVERAGE(B18:B291)</f>
-        <v>4.0807066789074753</v>
+        <v>3.9065184201766403</v>
       </c>
       <c r="C16">
         <f ca="1">AVERAGE(C18:C291)</f>
-        <v>10.201766697268686</v>
+        <v>9.7662960504415892</v>
       </c>
       <c r="D16">
         <f ca="1">AVERAGE(D18:D291)</f>
-        <v>20.403533394537373</v>
+        <v>19.532592100883178</v>
       </c>
       <c r="E16">
         <f ca="1">AVERAGE(E18:E291)</f>
-        <v>4.637166680576672</v>
+        <v>4.4392254774734559</v>
       </c>
       <c r="F16">
         <f ca="1">AVERAGE(F18:F291)</f>
-        <v>1.6724207700440459</v>
+        <v>1.6010321394166542</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" ref="A18:A291" ca="1" si="3">RAND()</f>
-        <v>0.77880199068468414</v>
+        <v>0.9380099514526925</v>
       </c>
       <c r="B18">
         <f ca="1">-LN($A18)*B$11</f>
-        <v>0.99999379758023232</v>
+        <v>0.25597888323028373</v>
       </c>
       <c r="C18">
         <f t="shared" ref="C18:F275" ca="1" si="4">-LN($A18)*C$11</f>
-        <v>2.4999844939505809</v>
+        <v>0.63994720807570937</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9999689879011617</v>
+        <v>1.2798944161514187</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1363565881593549</v>
+        <v>0.29088509457986789</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40983352359845587</v>
+        <v>0.1049093783730671</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35122527972322426</v>
+        <v>0.27468697171245293</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19:F38" ca="1" si="5">-LN($A19)*B$11</f>
-        <v>4.1853097552920122</v>
+        <v>5.168492457342424</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="5"/>
-        <v>10.46327438823003</v>
+        <v>12.92123114335606</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="5"/>
-        <v>20.926548776460059</v>
+        <v>25.84246228671212</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7560338128318325</v>
+        <v>5.8732868833436642</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7152908833163985</v>
+        <v>2.1182346136649279</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23644061680919981</v>
+        <v>0.13897069367948478</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7682327771792368</v>
+        <v>7.89396881967558</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="5"/>
-        <v>14.420581942948091</v>
+        <v>19.734922049188949</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="5"/>
-        <v>28.841163885896183</v>
+        <v>39.469844098377898</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5548099740673154</v>
+        <v>8.970419113267706</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3640298267128022</v>
+        <v>3.2352331228178608</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76975562112024076</v>
+        <v>0.99861054298074214</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0467287587083336</v>
+        <v>5.5616928390100819E-3</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6168218967708339</v>
+        <v>1.3904232097525206E-2</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2336437935416678</v>
+        <v>2.7808464195050411E-2</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1894644985321974</v>
+        <v>6.3201054988750935E-3</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42898719619194003</v>
+        <v>2.279382311069706E-3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90734656200826369</v>
+        <v>0.7097631934181089</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38892321926086953</v>
+        <v>1.3712955799097568</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97230804815217386</v>
+        <v>3.4282389497743919</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9446160963043477</v>
+        <v>6.8564778995487838</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44195820370553363</v>
+        <v>1.558290431715633</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15939476199215966</v>
+        <v>0.56200638520891677</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55305800980980047</v>
+        <v>0.69826311161061705</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3691695310515568</v>
+        <v>1.4366371860651987</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9229238276288925</v>
+        <v>3.591592965162997</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="5"/>
-        <v>11.845847655257785</v>
+        <v>7.183185930325994</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6922381034676786</v>
+        <v>1.6325422568922714</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97097111928342494</v>
+        <v>0.58878573199393391</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37498856450786178</v>
+        <v>0.74013787756034266</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9234389924895972</v>
+        <v>1.2036751564481536</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8085974812239929</v>
+        <v>3.009187891120384</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="5"/>
-        <v>19.617194962447986</v>
+        <v>6.018375782240768</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="5"/>
-        <v>4.458453400556361</v>
+        <v>1.3678126777819928</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6079668002006546</v>
+        <v>0.49330949034760396</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39173402942898006</v>
+        <v>0.60070810332021618</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="5"/>
-        <v>3.748688663316555</v>
+        <v>2.0385845896856361</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="5"/>
-        <v>9.3717216582913885</v>
+        <v>5.0964614742140899</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="5"/>
-        <v>18.743443316582777</v>
+        <v>10.19292294842818</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2598734810415406</v>
+        <v>2.3165733973700413</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5363478128346537</v>
+        <v>0.83548548757608032</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32823224179928634</v>
+        <v>0.16859282985189583</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4561354675361429</v>
+        <v>7.121075047550125</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="5"/>
-        <v>11.140338668840357</v>
+        <v>17.802687618875311</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="5"/>
-        <v>22.280677337680714</v>
+        <v>35.605375237750621</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0637903040183447</v>
+        <v>8.0921307358524146</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8262850276787472</v>
+        <v>2.9184733801434941</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87868162653428949</v>
+        <v>0.47859849015993339</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51733058610711535</v>
+        <v>2.9475730328567651</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2933264652677883</v>
+        <v>7.3689325821419125</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5866529305355765</v>
+        <v>14.737865164283825</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58787566603081298</v>
+        <v>3.3495148100645062</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21202073201111285</v>
+        <v>1.2080217347773627</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24125462439539658</v>
+        <v>5.8058324928891292E-3</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6876094818737073</v>
+        <v>20.595569057946811</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="5"/>
-        <v>14.219023704684268</v>
+        <v>51.488922644867031</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="5"/>
-        <v>28.438047409368536</v>
+        <v>102.97784528973406</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4631925930383041</v>
+        <v>23.404055747666831</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3309874925711918</v>
+        <v>8.4408069909618089</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13151893238478007</v>
+        <v>0.67488412770428863</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1144178608781257</v>
+        <v>1.572857062022565</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="5"/>
-        <v>20.286044652195315</v>
+        <v>3.9321426550564125</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="5"/>
-        <v>40.57208930439063</v>
+        <v>7.8642853101128249</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2209293873615081</v>
+        <v>1.7873375704801877</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3255810905238219</v>
+        <v>0.64461355000924803</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77303395293751254</v>
+        <v>0.39284064105584726</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0297292310646722</v>
+        <v>3.7374049713766668</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5743230776616803</v>
+        <v>9.3435124284416666</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1486461553233607</v>
+        <v>18.687024856883333</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1701468534825821</v>
+        <v>4.2470511038371219</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42202017666584929</v>
+        <v>1.5317233489248634</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3052548829205507</v>
+        <v>0.51875464491125134</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="5"/>
-        <v>4.7464326786221784</v>
+        <v>2.6252970137261222</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="5"/>
-        <v>11.866081696555446</v>
+        <v>6.5632425343153056</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="5"/>
-        <v>23.732163393110891</v>
+        <v>13.126485068630611</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3936734984342944</v>
+        <v>2.9832920610524121</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9452592945172862</v>
+        <v>1.0759413990680828</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65343139109176496</v>
+        <v>0.33704100925643699</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7020709531282363</v>
+        <v>4.3502026673802545</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="5"/>
-        <v>4.255177382820591</v>
+        <v>10.875506668450637</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="5"/>
-        <v>8.510354765641182</v>
+        <v>21.751013336901273</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9341715376457234</v>
+        <v>4.9434121220230169</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69757006275747391</v>
+        <v>1.7828699456476453</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9997546899283285</v>
+        <v>0.51398277891441713</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="5"/>
-        <v>9.8136066043486058E-4</v>
+        <v>2.6622620725831987</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4534016510871512E-3</v>
+        <v>6.6556551814579965</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9068033021743025E-3</v>
+        <v>13.311310362915993</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="5"/>
-        <v>1.115182568675978E-3</v>
+        <v>3.0252978097536349</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0219699198150026E-4</v>
+        <v>1.0910910133537699</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3214899536752206</v>
+        <v>0.18031146642913198</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="5"/>
-        <v>4.5391559363251357</v>
+        <v>6.8522782176197881</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="5"/>
-        <v>11.34788984081284</v>
+        <v>17.13069554404947</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="5"/>
-        <v>22.69577968162568</v>
+        <v>34.261391088098939</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1581317458240186</v>
+        <v>7.7866797927497595</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8603098099693181</v>
+        <v>2.8083107449261426</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63768511662442051</v>
+        <v>0.81587803186369001</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7996426603307378</v>
+        <v>0.81396162378071402</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4991066508268442</v>
+        <v>2.0349040594517849</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="5"/>
-        <v>8.9982133016536885</v>
+        <v>4.0698081189035697</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="5"/>
-        <v>2.045048477648566</v>
+        <v>0.92495639065990243</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73755846734866304</v>
+        <v>0.33359082941832541</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3962965070999274E-2</v>
+        <v>0.30008963414129952</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="5"/>
-        <v>13.529938442645289</v>
+        <v>4.8146962739237349</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="5"/>
-        <v>33.824846106613222</v>
+        <v>12.036740684809338</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="5"/>
-        <v>67.649692213226444</v>
+        <v>24.073481369618676</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="5"/>
-        <v>15.374930048460557</v>
+        <v>5.4712457658224265</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.5450567387890528</v>
+        <v>1.9732361778375964</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73459648706042957</v>
+        <v>0.98163027593345542</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2337357108805362</v>
+        <v>7.4162170432377772E-2</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="5"/>
-        <v>3.0843392772013405</v>
+        <v>0.18540542608094443</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="5"/>
-        <v>6.168678554402681</v>
+        <v>0.37081085216188886</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4019723987278823</v>
+        <v>8.427519367315657E-2</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50562938970513782</v>
+        <v>3.039433214441712E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85097318751493212</v>
+        <v>8.9092487714171553E-2</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64549863175240862</v>
+        <v>9.672321044128692</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6137465793810215</v>
+        <v>24.180802610321731</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="5"/>
-        <v>3.227493158762043</v>
+        <v>48.361605220643462</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73352117244591897</v>
+        <v>10.991273913782605</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26454861957065928</v>
+        <v>3.9640660016920868</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72471136554164972</v>
+        <v>0.47286327459044086</v>
       </c>
       <c r="B39">
         <f t="shared" ref="B39:F54" ca="1" si="6">-LN($A39)*B$11</f>
-        <v>1.2879272795645988</v>
+        <v>2.9957959693544378</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2198181989114971</v>
+        <v>7.4894899233860945</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4396363978229942</v>
+        <v>14.978979846772189</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4635537267779533</v>
+        <v>3.4043136015391342</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52783904900188483</v>
+        <v>1.2277852333419828</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50521730391610042</v>
+        <v>0.65156176212412042</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7310665499078941</v>
+        <v>1.7135323481077251</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="6"/>
-        <v>6.827666374769735</v>
+        <v>4.2838308702693126</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="6"/>
-        <v>13.65533274953947</v>
+        <v>8.5676617405386253</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1034847158044254</v>
+        <v>1.9471958501224151</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1192895696343828</v>
+        <v>0.70226735578185462</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7090319123700346E-2</v>
+        <v>6.6425269219271832E-2</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="6"/>
-        <v>10.251110275577666</v>
+        <v>10.846710937453356</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="6"/>
-        <v>25.627775688944165</v>
+        <v>27.116777343633387</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="6"/>
-        <v>51.255551377888331</v>
+        <v>54.233554687266775</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="6"/>
-        <v>11.648988949520076</v>
+        <v>12.325807883469723</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="6"/>
-        <v>4.201274703105601</v>
+        <v>4.4453733350218672</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99583005656238877</v>
+        <v>0.68842883072396555</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6714647588710121E-2</v>
+        <v>1.4933733389958852</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1786618971775304E-2</v>
+        <v>3.7334333474897132</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3573237943550607E-2</v>
+        <v>7.4668666949794265</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8993917714443323E-2</v>
+        <v>1.6970151579498698</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="6"/>
-        <v>6.8502654052090663E-3</v>
+        <v>0.61203825368683817</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39702907603512727</v>
+        <v>0.74040657776769936</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6949830463745088</v>
+        <v>1.2022232569967601</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="6"/>
-        <v>9.2374576159362718</v>
+        <v>3.0055581424919002</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="6"/>
-        <v>18.474915231872544</v>
+        <v>6.0111162849838005</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1988443708801242</v>
+        <v>1.3661627920417729</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5143373140879135</v>
+        <v>0.49271444958883615</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80781279332177935</v>
+        <v>0.49988515135521505</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="6"/>
-        <v>0.85369975495635897</v>
+        <v>2.7735076169359121</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1342493873908976</v>
+        <v>6.9337690423397804</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2684987747817953</v>
+        <v>13.867538084679561</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97011335790495345</v>
+        <v>3.1517132010635369</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34987694875260617</v>
+        <v>1.1366834495638984</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9223948154613798</v>
+        <v>0.29715931431744003</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32312772299375925</v>
+        <v>4.8539474886144394</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="6"/>
-        <v>0.80781930748439812</v>
+        <v>12.134868721536098</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6156386149687962</v>
+        <v>24.269737443072195</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36719059431109008</v>
+        <v>5.5158494188800455</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13242939466957346</v>
+        <v>1.989322741235426</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4694160674958989E-2</v>
+        <v>0.29181073202775865</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="6"/>
-        <v>16.881220388445438</v>
+        <v>4.9265994594366118</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="6"/>
-        <v>42.203050971113598</v>
+        <v>12.31649864859153</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="6"/>
-        <v>84.406101942227195</v>
+        <v>24.63299729718306</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="6"/>
-        <v>19.183204986869818</v>
+        <v>5.598408476632514</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9185329460841967</v>
+        <v>2.0190981391133653</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53401163871688651</v>
+        <v>0.6976175885145256</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5093505796379305</v>
+        <v>1.4403367752467127</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2733764490948261</v>
+        <v>3.6008419381167815</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="6"/>
-        <v>12.546752898189652</v>
+        <v>7.2016838762335631</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="6"/>
-        <v>2.8515347495885575</v>
+        <v>1.6367463355076282</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0284223687040699</v>
+        <v>0.59030195706832489</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6923687638916145</v>
+        <v>0.51753749978558339</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4705462780235143</v>
+        <v>2.6346931724566822</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="6"/>
-        <v>3.6763656950587857</v>
+        <v>6.5867329311417055</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3527313901175715</v>
+        <v>13.173465862283411</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6710753159358118</v>
+        <v>2.9939695141553209</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6026829008293092</v>
+        <v>1.0797922837937222</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51189514957968196</v>
+        <v>9.3044770746074867E-2</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="6"/>
-        <v>2.6785418435652972</v>
+        <v>9.498697983182959</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6963546089132429</v>
+        <v>23.746744957957397</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="6"/>
-        <v>13.392709217826486</v>
+        <v>47.493489915914793</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0437975495060199</v>
+        <v>10.793974980889727</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0977630506415152</v>
+        <v>3.8929090095012127</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66625073488988695</v>
+        <v>7.2650924212198653E-3</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="6"/>
-        <v>1.6243568019138821</v>
+        <v>19.698697042426208</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>4.060892004784705</v>
+        <v>49.246742606065517</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="6"/>
-        <v>8.12178400956941</v>
+        <v>98.493485212131034</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8458600021748661</v>
+        <v>22.384883002757057</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66572000078437787</v>
+        <v>8.0732364927976263</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60626065926958417</v>
+        <v>0.535788845305324</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0017810183386637</v>
+        <v>2.4960605634162727</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0044525458466591</v>
+        <v>6.2401514085406813</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="6"/>
-        <v>10.008905091693318</v>
+        <v>12.480302817081363</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2747511572030272</v>
+        <v>2.8364324584275828</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="6"/>
-        <v>0.82040205669617372</v>
+        <v>1.022975640744374</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45554090334355379</v>
+        <v>0.74002364355180272</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="6"/>
-        <v>3.1450790701416369</v>
+        <v>1.2042925701946259</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8626976753540925</v>
+        <v>3.0107314254865649</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="6"/>
-        <v>15.725395350708185</v>
+        <v>6.0214628509731298</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="6"/>
-        <v>3.573953488797315</v>
+        <v>1.368514284312075</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="6"/>
-        <v>1.288966832025261</v>
+        <v>0.49356252876828932</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1896216693018723</v>
+        <v>0.60029364633825988</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6508976244997342</v>
+        <v>2.0413453316980541</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="6"/>
-        <v>16.627244061249336</v>
+        <v>5.103363329245135</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="6"/>
-        <v>33.254488122498671</v>
+        <v>10.20672665849027</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5578382096587893</v>
+        <v>2.3197106042023345</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7257777149589075</v>
+        <v>0.83661693922051394</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61921767583141052</v>
+        <v>0.59672391359780141</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9171936434987911</v>
+        <v>2.0652029153620473</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7929841087469773</v>
+        <v>5.1630072884051179</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="6"/>
-        <v>9.5859682174939547</v>
+        <v>10.326014576810236</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1786291403395355</v>
+        <v>2.3468214947295993</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="6"/>
-        <v>0.78573509979458656</v>
+        <v>0.84639463744346199</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34876210895009097</v>
+        <v>0.87629335260277719</v>
       </c>
       <c r="B55">
         <f t="shared" ref="B55:F72" ca="1" si="7">-LN($A55)*B$11</f>
-        <v>4.2134609017819065</v>
+        <v>0.52821746681694715</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>10.533652254454767</v>
+        <v>1.3205436670423678</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>21.067304508909533</v>
+        <v>2.6410873340847356</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7880237520248938</v>
+        <v>0.60024712138289449</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7268282384352076</v>
+        <v>0.2164825683676013</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54071173529082561</v>
+        <v>0.42229546663003958</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="7"/>
-        <v>2.4594759157772903</v>
+        <v>3.448200208204887</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>6.1486897894432255</v>
+        <v>8.620500520512218</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>12.297379578886451</v>
+        <v>17.241001041024436</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7948589952014666</v>
+        <v>3.9184093275055538</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0079819326956108</v>
+        <v>1.4131968066413472</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60020803736053774</v>
+        <v>0.59506923255211053</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0419158197133878</v>
+        <v>2.0763100919001878</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1047895492834696</v>
+        <v>5.1907752297504697</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>10.209579098566939</v>
+        <v>10.381550459500939</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="7"/>
-        <v>2.3203588860379409</v>
+        <v>2.3594432862502135</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="7"/>
-        <v>0.83685074578417529</v>
+        <v>0.85094675897548677</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62056127396620353</v>
+        <v>0.70714811035896208</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9085237194867528</v>
+        <v>1.3860605748474251</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7713092987168819</v>
+        <v>3.4651514371185628</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>9.5426185974337638</v>
+        <v>6.9303028742371255</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1687769539622193</v>
+        <v>1.5750688350538922</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="7"/>
-        <v>0.78218185224866921</v>
+        <v>0.5680576126423873</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" ca="1" si="3"/>
-        <v>6.262496964531783E-2</v>
+        <v>0.84467842687406003</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="7"/>
-        <v>11.082364817130918</v>
+        <v>0.67519713587447416</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>27.705912042827293</v>
+        <v>1.6879928396861854</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>55.411824085654587</v>
+        <v>3.3759856793723708</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="7"/>
-        <v>12.593596383103316</v>
+        <v>0.76726947258462985</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5419527939061135</v>
+        <v>0.27672013765347303</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40259100728253994</v>
+        <v>0.79285125373006315</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6393364105264987</v>
+        <v>0.92847859620961659</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0983410263162465</v>
+        <v>2.3211964905240414</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>18.196682052632493</v>
+        <v>4.6423929810480828</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1356095574164762</v>
+        <v>1.0550893138745645</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4915313157895487</v>
+        <v>0.38052401484000681</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67355052687903205</v>
+        <v>0.85872907791111042</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5807690583838623</v>
+        <v>0.60920719665863465</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>3.9519226459596557</v>
+        <v>1.5230179916465867</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9038452919193114</v>
+        <v>3.0460359832931734</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7963284754362072</v>
+        <v>0.69228090529390307</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64785617146879604</v>
+        <v>0.24967508059780111</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62463787476387944</v>
+        <v>0.44240241772911204</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="7"/>
-        <v>1.8823327901631655</v>
+        <v>3.2621414550372272</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7058319754079134</v>
+        <v>8.155353637593068</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>9.4116639508158269</v>
+        <v>16.310707275186136</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="7"/>
-        <v>2.1390145342763245</v>
+        <v>3.7069789261786674</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="7"/>
-        <v>0.7714478648209695</v>
+        <v>1.3369432192775521</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18869947914751684</v>
+        <v>0.84638835763921316</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6703983473039168</v>
+        <v>0.66710789249945379</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="7"/>
-        <v>16.675995868259793</v>
+        <v>1.6677697312486344</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>33.351991736519587</v>
+        <v>3.3355394624972687</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="7"/>
-        <v>7.5799981219362698</v>
+        <v>0.7580771505675612</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7337698144688183</v>
+        <v>0.27340487397518598</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97196142428513443</v>
+        <v>0.70450211615433955</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="7"/>
-        <v>0.11375664903478384</v>
+        <v>1.4010557755208828</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>0.2843916225869596</v>
+        <v>3.5026394388022069</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56878324517391921</v>
+        <v>7.0052788776044137</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12926891935770893</v>
+        <v>1.5921088358191851</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="7"/>
-        <v>4.6621577473272072E-2</v>
+        <v>0.57420318668888637</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6216897091020881E-2</v>
+        <v>0.33881894001039881</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="7"/>
-        <v>9.3646011651900896</v>
+        <v>4.3291576581933997</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>23.411502912975223</v>
+        <v>10.822894145483499</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>46.823005825950446</v>
+        <v>21.645788290966998</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="7"/>
-        <v>10.641592233170558</v>
+        <v>4.9194973388561367</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="7"/>
-        <v>3.8379512972090533</v>
+        <v>1.774244941882541</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49863861564973999</v>
+        <v>0.44773591577400729</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="7"/>
-        <v>2.7834946509492839</v>
+        <v>3.2142067763752999</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>6.9587366273732094</v>
+        <v>8.0355169409382494</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>13.917473254746419</v>
+        <v>16.071033881876499</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1630621033514594</v>
+        <v>3.6525077004264777</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1407764962906901</v>
+        <v>1.3172978591702049</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72359931296780045</v>
+        <v>0.90280695781312403</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2940698997020625</v>
+        <v>0.40898610856835094</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2351747492551564</v>
+        <v>1.0224652714208773</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>6.4703494985103127</v>
+        <v>2.0449305428417546</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4705339769341621</v>
+        <v>0.46475694155494429</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53035651627133718</v>
+        <v>0.16761725760997989</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64227730256223525</v>
+        <v>2.1814920517798098E-2</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7709405323769856</v>
+        <v>15.300644463515177</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="7"/>
-        <v>4.4273513309424644</v>
+        <v>38.251611158787938</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>8.8547026618849287</v>
+        <v>76.503222317575876</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0124324231556656</v>
+        <v>17.387095981267247</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="7"/>
-        <v>0.72579530015450233</v>
+        <v>6.2707559276701543</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61564328182470984</v>
+        <v>0.36025775516755731</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9403502845268046</v>
+        <v>4.0837420686061634</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8508757113170118</v>
+        <v>10.209355171515409</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>9.7017514226340236</v>
+        <v>20.418710343030817</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="7"/>
-        <v>2.2049435051440964</v>
+        <v>4.6406159870524588</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79522552644541178</v>
+        <v>1.6736647822156407</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7287908803411605E-2</v>
+        <v>0.4892100110247567</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="7"/>
-        <v>12.206002575989855</v>
+        <v>2.8598536452200203</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>30.515006439974638</v>
+        <v>7.1496341130500509</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>61.030012879949275</v>
+        <v>14.299268226100102</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="7"/>
-        <v>13.870457472715746</v>
+        <v>3.2498336877500233</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0024600721269898</v>
+        <v>1.1720711660737788</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76026870827305815</v>
+        <v>0.59372185989123771</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0963333786937204</v>
+        <v>2.0853772744952002</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>2.740833446734301</v>
+        <v>5.2134431862380008</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>5.4816668934686019</v>
+        <v>10.426886372476002</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2458333848792278</v>
+        <v>2.369746902835455</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44931695848103298</v>
+        <v>0.85466281741606565</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7083478488972403E-2</v>
+        <v>0.73428739545939092</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="7"/>
-        <v>16.27857381100948</v>
+        <v>1.2354191202189002</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>40.696434527523699</v>
+        <v>3.0885478005472504</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>81.392869055047399</v>
+        <v>6.1770956010945008</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="7"/>
-        <v>18.498379330692593</v>
+        <v>1.4038853638851141</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6715466438563444</v>
+        <v>0.506319311565123</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20847921336695519</v>
+        <v>0.28887198680058568</v>
       </c>
       <c r="B73">
         <f t="shared" ref="B73:F88" ca="1" si="8">-LN($A73)*B$11</f>
-        <v>6.2716637551800609</v>
+        <v>4.9670865649965581</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="8"/>
-        <v>15.679159387950152</v>
+        <v>12.417716412491394</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="8"/>
-        <v>31.358318775900305</v>
+        <v>24.835432824982789</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="8"/>
-        <v>7.1268906308864333</v>
+        <v>5.6444165511324531</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5703539980246153</v>
+        <v>2.0356912151625237</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36760228220751123</v>
+        <v>0.83884334103356506</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="8"/>
-        <v>4.0030147204830859</v>
+        <v>0.70292524402406054</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="8"/>
-        <v>10.007536801207715</v>
+        <v>1.7573131100601513</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="8"/>
-        <v>20.015073602415431</v>
+        <v>3.5146262201203027</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="8"/>
-        <v>4.548880364185325</v>
+        <v>0.79877868639097793</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6405798034766745</v>
+        <v>0.2880841164033035</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68570275947541959</v>
+        <v>0.81581902523473626</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5092441615243559</v>
+        <v>0.81425092566416235</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="8"/>
-        <v>3.7731104038108896</v>
+        <v>2.035627314160406</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5462208076217792</v>
+        <v>4.071254628320812</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7150501835504046</v>
+        <v>0.92528514280018459</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
-        <v>0.6185426891493262</v>
+        <v>0.33370939576400099</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18749251017872293</v>
+        <v>0.57277524097033972</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6960655203320023</v>
+        <v>2.2290475553314559</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="8"/>
-        <v>16.740163800830004</v>
+        <v>5.5726188883286394</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="8"/>
-        <v>33.480327601660008</v>
+        <v>11.145237776657279</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="8"/>
-        <v>7.6091653640136396</v>
+        <v>2.5330085856039273</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
-        <v>2.7442891476770503</v>
+        <v>0.91354408005387544</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69001900812254735</v>
+        <v>0.75483491639823908</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4841445350663178</v>
+        <v>1.1250248296740057</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="8"/>
-        <v>3.7103613376657947</v>
+        <v>2.8125620741850144</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="8"/>
-        <v>7.4207226753315894</v>
+        <v>5.6251241483700287</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6865278807571795</v>
+        <v>1.2784373064477339</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="8"/>
-        <v>0.60825595699439261</v>
+        <v>0.46107574986639582</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17411746947692597</v>
+        <v>0.91840912763354998</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9921003824672017</v>
+        <v>0.34044925936336723</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="8"/>
-        <v>17.480250956168003</v>
+        <v>0.85112314840841807</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="8"/>
-        <v>34.960501912336007</v>
+        <v>1.7022462968168361</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="8"/>
-        <v>7.9455686164400028</v>
+        <v>0.38687415836746281</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
-        <v>2.865614910847214</v>
+        <v>0.13952838498498657</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3611798469838543</v>
+        <v>0.36002915657775059</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="8"/>
-        <v>4.0735170144569119</v>
+        <v>4.086281041271131</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="8"/>
-        <v>10.183792536142279</v>
+        <v>10.215702603177828</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="8"/>
-        <v>20.367585072284559</v>
+        <v>20.431405206355656</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="8"/>
-        <v>4.6289966073374007</v>
+        <v>4.6435011832626492</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6694741862528328</v>
+        <v>1.6747053447832505</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" ca="1" si="3"/>
-        <v>8.848699237348745E-2</v>
+        <v>0.35880867780122583</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="8"/>
-        <v>9.6995988664054007</v>
+        <v>4.0998638538712715</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="8"/>
-        <v>24.248997166013503</v>
+        <v>10.249659634678178</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="8"/>
-        <v>48.497994332027005</v>
+        <v>20.499319269356356</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="8"/>
-        <v>11.022271439097047</v>
+        <v>4.6589361975809904</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
-        <v>3.9752454370513939</v>
+        <v>1.6802720712587178</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9981781783248862</v>
+        <v>0.8771123498172555</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="8"/>
-        <v>7.2939328421703946E-3</v>
+        <v>0.52448075135898409</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="8"/>
-        <v>1.8234832105425987E-2</v>
+        <v>1.3112018783974602</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="8"/>
-        <v>3.6469664210851974E-2</v>
+        <v>2.6224037567949203</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="8"/>
-        <v>8.2885600479209037E-3</v>
+        <v>0.59600085381702739</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
-        <v>2.989316738594424E-3</v>
+        <v>0.21495112760614102</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88974536790436154</v>
+        <v>0.49381612827243471</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="8"/>
-        <v>0.4672798426784206</v>
+        <v>2.8223681642254768</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1681996066960516</v>
+        <v>7.0559204105636919</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3363992133921032</v>
+        <v>14.111840821127384</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="8"/>
-        <v>0.53099982122547795</v>
+        <v>3.2072365502562237</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19150813224525434</v>
+        <v>1.1567082640268347</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34943494898061123</v>
+        <v>0.44990023506783305</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="8"/>
-        <v>4.205751442325866</v>
+        <v>3.1949176825843035</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="8"/>
-        <v>10.514378605814665</v>
+        <v>7.987294206460759</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="8"/>
-        <v>21.02875721162933</v>
+        <v>15.974588412921518</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="8"/>
-        <v>4.7792630026430301</v>
+        <v>3.6305882756639818</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="8"/>
-        <v>1.7236686239040435</v>
+        <v>1.3093924928624194</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70622967091515487</v>
+        <v>0.55873431219373026</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="8"/>
-        <v>1.3912591259227312</v>
+        <v>2.3283248402371499</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="8"/>
-        <v>3.4781478148068281</v>
+        <v>5.8208121005928746</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="8"/>
-        <v>6.9562956296136562</v>
+        <v>11.641624201185749</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5809762794576492</v>
+        <v>2.6458236820876704</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57018816636177505</v>
+        <v>0.9542314919004713</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9033924069879895</v>
+        <v>0.35414436375668901</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="8"/>
-        <v>0.40639304290006434</v>
+        <v>4.1522025670273699</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="8"/>
-        <v>1.0159826072501608</v>
+        <v>10.380506417568425</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="8"/>
-        <v>2.0319652145003215</v>
+        <v>20.761012835136849</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46181027602280045</v>
+        <v>4.7184120079856484</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16655452577871491</v>
+        <v>1.7017223635358074</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0255878223243586E-2</v>
+        <v>2.0551258649383453E-2</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="8"/>
-        <v>18.31961701033206</v>
+        <v>15.539332367081217</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="8"/>
-        <v>45.799042525830146</v>
+        <v>38.848330917703045</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="8"/>
-        <v>91.598085051660291</v>
+        <v>77.69666183540609</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="8"/>
-        <v>20.817746602650068</v>
+        <v>17.658332235319566</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="8"/>
-        <v>7.5080397583328118</v>
+        <v>6.3685788389677116</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2335908118698401</v>
+        <v>0.65206115258322561</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="8"/>
-        <v>5.8167374462023602</v>
+        <v>1.7104677165925866</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="8"/>
-        <v>14.541843615505901</v>
+        <v>4.276169291481466</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="8"/>
-        <v>29.083687231011801</v>
+        <v>8.5523385829629319</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="8"/>
-        <v>6.6099289161390464</v>
+        <v>1.9437133143097576</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>2.3839087894271969</v>
+        <v>0.70101135925925684</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58395188534125708</v>
+        <v>0.3675873176574741</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="8"/>
-        <v>2.1517467506491319</v>
+        <v>4.0031775579339088</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3793668766228295</v>
+        <v>10.007943894834773</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="8"/>
-        <v>10.758733753245659</v>
+        <v>20.015887789669545</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="8"/>
-        <v>2.4451667621012865</v>
+        <v>4.5490654067430789</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="8"/>
-        <v>0.88186342239718518</v>
+        <v>1.640646540136848</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12639502055964569</v>
+        <v>0.1323156538450222</v>
       </c>
       <c r="B89">
         <f t="shared" ref="B89:F108" ca="1" si="9">-LN($A89)*B$11</f>
-        <v>8.2733727694078265</v>
+        <v>8.0902595761461225</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="9"/>
-        <v>20.683431923519567</v>
+        <v>20.225648940365307</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="9"/>
-        <v>41.366863847039134</v>
+        <v>40.451297880730614</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>9.4015599652361672</v>
+        <v>9.19347679107514</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3907265448392732</v>
+        <v>3.315680154158247</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83278210970531752</v>
+        <v>0.83134947868776998</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.7319329760571438</v>
+        <v>0.73882008225216378</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="9"/>
-        <v>1.8298324401428596</v>
+        <v>1.8470502056304094</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="9"/>
-        <v>3.6596648802857192</v>
+        <v>3.6941004112608189</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.83174201824675442</v>
+        <v>0.83956827528654987</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29997253117096057</v>
+        <v>0.30279511567711631</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16486407796611657</v>
+        <v>0.8675869045605944</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="9"/>
-        <v>7.2105356578750293</v>
+        <v>0.56815837604315278</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="9"/>
-        <v>18.026339144687572</v>
+        <v>1.4203959401078818</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="9"/>
-        <v>36.052678289375145</v>
+        <v>2.8407918802157637</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1937905203125343</v>
+        <v>0.64563451823085549</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="9"/>
-        <v>2.955137564702881</v>
+        <v>0.23285179346030851</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67539769763844693</v>
+        <v>0.51376364878714154</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="9"/>
-        <v>1.5698143196896159</v>
+        <v>2.6639677861692723</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9245357992240399</v>
+        <v>6.6599194654231813</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="9"/>
-        <v>7.8490715984480799</v>
+        <v>13.319838930846363</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7838799087382</v>
+        <v>3.0272361206469007</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="9"/>
-        <v>0.64336652446295739</v>
+        <v>1.0917900762988821</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35903391684130026</v>
+        <v>0.41160252641541661</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="9"/>
-        <v>4.0973536763014557</v>
+        <v>3.5507885480222741</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="9"/>
-        <v>10.243384190753639</v>
+        <v>8.8769713700556849</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="9"/>
-        <v>20.486768381507279</v>
+        <v>17.75394274011137</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>4.6560837230698366</v>
+        <v>4.0349869863889483</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6792433099596131</v>
+        <v>1.4552412082058501</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46162273693194245</v>
+        <v>0.60105180397616831</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="9"/>
-        <v>3.0920292328654089</v>
+        <v>2.0362966074473445</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="9"/>
-        <v>7.7300730821635222</v>
+        <v>5.0907415186183611</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="9"/>
-        <v>15.460146164327044</v>
+        <v>10.181483037236722</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>3.5136695828016014</v>
+        <v>2.3139734175538007</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2672250954366431</v>
+        <v>0.83454778993743628</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72038692673745375</v>
+        <v>0.2397745169207347</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3118672522891921</v>
+        <v>5.7122252403568918</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="9"/>
-        <v>3.27966813072298</v>
+        <v>14.28056310089223</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="9"/>
-        <v>6.55933626144596</v>
+        <v>28.561126201784461</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4907582412377185</v>
+        <v>6.4911650458601047</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53765051323327551</v>
+        <v>2.3410759181790541</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14711622645366762</v>
+        <v>0.80755939494972317</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="9"/>
-        <v>7.6661293938396602</v>
+        <v>0.85495468989197065</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="9"/>
-        <v>19.165323484599149</v>
+        <v>2.1373867247299265</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="9"/>
-        <v>38.330646969198298</v>
+        <v>4.274773449459853</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>8.7115106748177968</v>
+        <v>0.97153942033178498</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="9"/>
-        <v>3.1418563089506804</v>
+        <v>0.35039126634916828</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43180259684237288</v>
+        <v>0.98717769404660061</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="9"/>
-        <v>3.3591469877042455</v>
+        <v>5.1620885031536959E-2</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3978674692606141</v>
+        <v>0.12905221257884239</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="9"/>
-        <v>16.795734938521228</v>
+        <v>0.25810442515768478</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
-        <v>3.817212486027552</v>
+        <v>5.8660096626746552E-2</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="9"/>
-        <v>1.3766995851246908</v>
+        <v>2.1156100422761049E-2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61483624553601268</v>
+        <v>4.2009958689494531E-2</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9455972562088018</v>
+        <v>12.679394308602651</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8639931405220045</v>
+        <v>31.698485771506629</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="9"/>
-        <v>9.727986281044009</v>
+        <v>63.396971543013258</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>2.2109059729645475</v>
+        <v>14.408402623412105</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="9"/>
-        <v>0.79737592467573848</v>
+        <v>5.1964730772961687</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78585031273387584</v>
+        <v>0.92511162578583117</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="9"/>
-        <v>0.96395578601473131</v>
+        <v>0.31136348890126037</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="9"/>
-        <v>2.4098894650368283</v>
+        <v>0.77840872225315094</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="9"/>
-        <v>4.8197789300736567</v>
+        <v>1.5568174445063019</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0954043022894675</v>
+        <v>0.35382214647870497</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3950638467273489</v>
+        <v>0.12760798725461492</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13080743677378903</v>
+        <v>0.83029243378535988</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="9"/>
-        <v>8.1361159420262403</v>
+        <v>0.7439092415328189</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="9"/>
-        <v>20.340289855065599</v>
+        <v>1.8597731038320473</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="9"/>
-        <v>40.680579710131198</v>
+        <v>3.7195462076640946</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>9.2455862977570913</v>
+        <v>0.84535141083274878</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>3.334473746732066</v>
+        <v>0.30488083669377825</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77252941674158881</v>
+        <v>0.42487213662319545</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0323407640434865</v>
+        <v>3.4238680413116489</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5808519101087164</v>
+        <v>8.5596701032791227</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1617038202174328</v>
+        <v>17.119340206558245</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1731145045948712</v>
+        <v>3.8907591378541468</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="9"/>
-        <v>0.4230904770670027</v>
+        <v>1.4032246070949381</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2391981162671879</v>
+        <v>0.42130221781329247</v>
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="9"/>
-        <v>5.7218525282953747</v>
+        <v>3.4576193831887125</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="9"/>
-        <v>14.304631320738437</v>
+        <v>8.6440484579717811</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="9"/>
-        <v>28.609262641476874</v>
+        <v>17.288096915943562</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="9"/>
-        <v>6.5021051457901988</v>
+        <v>3.9291129354417191</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3450215279899078</v>
+        <v>1.4170571242576691</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77568691056754091</v>
+        <v>0.75508934830525998</v>
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0160252239064278</v>
+        <v>1.1236767784352688</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5400630597660694</v>
+        <v>2.809191946088172</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0801261195321388</v>
+        <v>5.618383892176344</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1545741180754863</v>
+        <v>1.2769054300400784</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="9"/>
-        <v>0.41640378028951958</v>
+        <v>0.46052326985052</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76357725510393504</v>
+        <v>0.3774975705979503</v>
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0789638959020418</v>
+        <v>3.8967645832635358</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6974097397551047</v>
+        <v>9.7419114581588389</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3948194795102093</v>
+        <v>19.483822916317678</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="9"/>
-        <v>1.2260953362523204</v>
+        <v>4.4281415718903823</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44219831799264009</v>
+        <v>1.5970346652719409</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" ca="1" si="3"/>
-        <v>8.8033089721488045E-2</v>
+        <v>0.54098516239639494</v>
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="9"/>
-        <v>9.7201700624768215</v>
+        <v>2.4574537070644613</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="9"/>
-        <v>24.300425156192055</v>
+        <v>6.1436342676611533</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="9"/>
-        <v>48.600850312384111</v>
+        <v>12.287268535322307</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="9"/>
-        <v>11.045647798269115</v>
+        <v>2.7925610307550701</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="9"/>
-        <v>3.9836762551134517</v>
+        <v>1.0071531586329761</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <f t="shared" ca="1" si="3"/>
-        <v>0.313257984708179</v>
+        <v>0.80474200194003886</v>
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="9"/>
-        <v>4.6429127825615417</v>
+        <v>0.86893418966932301</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="9"/>
-        <v>11.607281956403854</v>
+        <v>2.1723354741733076</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="9"/>
-        <v>23.214563912807709</v>
+        <v>4.3446709483466153</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="9"/>
-        <v>5.276037252910843</v>
+        <v>0.98742521553332174</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9028331076071894</v>
+        <v>0.35612056953660781</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86603163538726824</v>
+        <v>0.49250705844262721</v>
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="9"/>
-        <v>0.57533536246654648</v>
+        <v>2.8329859464379648</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="9"/>
-        <v>1.4383384061663662</v>
+        <v>7.0824648660949121</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="9"/>
-        <v>2.8766768123327324</v>
+        <v>14.164929732189824</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="9"/>
-        <v>0.65379018462107563</v>
+        <v>3.2193022118613239</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23579318133874858</v>
+        <v>1.1610598141139201</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65793675666927343</v>
+        <v>0.86784204974319246</v>
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6745858670419991</v>
+        <v>0.56698220488937023</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="9"/>
-        <v>4.1864646676049979</v>
+        <v>1.4174555122234256</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="9"/>
-        <v>8.3729293352099958</v>
+        <v>2.8349110244468512</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="9"/>
-        <v>1.9029384852749991</v>
+        <v>0.64429796010155715</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="9"/>
-        <v>0.68630568321393404</v>
+        <v>0.23236975610220093</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2416437424077954</v>
+        <v>0.4310303740715018</v>
       </c>
       <c r="B109">
         <f t="shared" ref="B109:F124" ca="1" si="10">-LN($A109)*B$11</f>
-        <v>5.6811631051887908</v>
+        <v>3.3663068715110627</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="10"/>
-        <v>14.202907762971977</v>
+        <v>8.4157671787776565</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="10"/>
-        <v>28.405815525943954</v>
+        <v>16.831534357555313</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4558671649872625</v>
+        <v>3.8253487176262078</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="10"/>
-        <v>2.328345534913439</v>
+        <v>1.379633963734042</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94427568184378685</v>
+        <v>0.24826224148406761</v>
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="10"/>
-        <v>0.22934847847734499</v>
+        <v>5.5730786646341564</v>
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57337119619336252</v>
+        <v>13.932696661585391</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="10"/>
-        <v>1.146742392386725</v>
+        <v>27.865393323170782</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="10"/>
-        <v>0.26062327099698296</v>
+        <v>6.3330439370842688</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="10"/>
-        <v>9.3995278064485654E-2</v>
+        <v>2.2840486330467855</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36596650004529507</v>
+        <v>0.571761095821951</v>
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="10"/>
-        <v>4.0208539188031134</v>
+        <v>2.236136157981802</v>
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="10"/>
-        <v>10.052134797007783</v>
+        <v>5.590340394954505</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="10"/>
-        <v>20.104269594015566</v>
+        <v>11.18068078990901</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="10"/>
-        <v>4.5691521804580839</v>
+        <v>2.5410638158884118</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="10"/>
-        <v>1.6478909503291448</v>
+        <v>0.91644924507450909</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43397361486166575</v>
+        <v>0.41631062058939206</v>
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3390861679178254</v>
+        <v>3.5052944529665893</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="10"/>
-        <v>8.3477154197945644</v>
+        <v>8.7632361324164734</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="10"/>
-        <v>16.695430839589129</v>
+        <v>17.526472264832947</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="10"/>
-        <v>3.7944160999066203</v>
+        <v>3.9832891510983974</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3684779376712399</v>
+        <v>1.436596087281389</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43124290473723381</v>
+        <v>0.22530544686044696</v>
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3643350542205681</v>
+        <v>5.9611930232089305</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="10"/>
-        <v>8.4108376355514203</v>
+        <v>14.902982558022327</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="10"/>
-        <v>16.821675271102841</v>
+        <v>29.805965116044653</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="10"/>
-        <v>3.8231080161597366</v>
+        <v>6.77408298091924</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3788258418936754</v>
+        <v>2.4431118947577586</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21282926877225672</v>
+        <v>0.99743923440070636</v>
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="10"/>
-        <v>6.1890599589982545</v>
+        <v>1.0256199870870009E-2</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="10"/>
-        <v>15.472649897495636</v>
+        <v>2.5640499677175022E-2</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="10"/>
-        <v>30.945299794991271</v>
+        <v>5.1280999354350043E-2</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="10"/>
-        <v>7.033022680679835</v>
+        <v>1.1654772580534102E-2</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="10"/>
-        <v>2.536499983196006</v>
+        <v>4.2033606028155776E-3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0189244965698729E-2</v>
+        <v>0.46573617278714841</v>
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="10"/>
-        <v>18.345690120424763</v>
+        <v>3.056543831995163</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="10"/>
-        <v>45.864225301061907</v>
+        <v>7.6413595799879079</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="10"/>
-        <v>91.728450602123814</v>
+        <v>15.282719159975816</v>
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="10"/>
-        <v>20.847375136846324</v>
+        <v>3.4733452636308675</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="10"/>
-        <v>7.5187254591904766</v>
+        <v>1.2526818983586734</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2285515672293688E-2</v>
+        <v>0.5524363966386423</v>
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="10"/>
-        <v>10.508526025481</v>
+        <v>2.3736678856921234</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="10"/>
-        <v>26.271315063702502</v>
+        <v>5.9341697142303085</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="10"/>
-        <v>52.542630127405005</v>
+        <v>11.868339428460617</v>
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="10"/>
-        <v>11.941506847137502</v>
+        <v>2.6973498701046861</v>
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="10"/>
-        <v>4.3067729612627055</v>
+        <v>0.97281470725087027</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44706831836278715</v>
+        <v>0.35572227136260104</v>
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="10"/>
-        <v>3.2201754341855469</v>
+        <v>4.1344199568677924</v>
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="10"/>
-        <v>8.0504385854638674</v>
+        <v>10.336049892169481</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="10"/>
-        <v>16.100877170927735</v>
+        <v>20.672099784338961</v>
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="10"/>
-        <v>3.6592902661199398</v>
+        <v>4.6982044964406739</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3197440304039127</v>
+        <v>1.6944344085523739</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38368976506954833</v>
+        <v>1.2127937365635E-2</v>
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="10"/>
-        <v>3.8316838255560555</v>
+        <v>17.648974458153926</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="10"/>
-        <v>9.5792095638901387</v>
+        <v>44.122436145384818</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="10"/>
-        <v>19.158419127780277</v>
+        <v>88.244872290769635</v>
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="10"/>
-        <v>4.3541861654046086</v>
+        <v>20.055652793356735</v>
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="10"/>
-        <v>1.5703622235885473</v>
+        <v>7.2331862533417732</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83855498768900671</v>
+        <v>0.10884150017695304</v>
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="10"/>
-        <v>0.7043004849192549</v>
+        <v>8.8714503273534664</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="10"/>
-        <v>1.7607512122981372</v>
+        <v>22.178625818383665</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="10"/>
-        <v>3.5215024245962745</v>
+        <v>44.35725163676733</v>
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="10"/>
-        <v>0.80034146013551699</v>
+        <v>10.081193553810758</v>
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2886477397210061</v>
+        <v>3.6358402980956832</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24012840049500472</v>
+        <v>0.51852103573565089</v>
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="10"/>
-        <v>5.7063259865608238</v>
+        <v>2.6270987270712527</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="10"/>
-        <v>14.265814966402059</v>
+        <v>6.567746817678132</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="10"/>
-        <v>28.531629932804119</v>
+        <v>13.135493635356264</v>
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="10"/>
-        <v>6.4844613483645732</v>
+        <v>2.9853394625809693</v>
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="10"/>
-        <v>2.3386581912134523</v>
+        <v>1.0766798061767429</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70592128931224318</v>
+        <v>0.50745946154851407</v>
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="10"/>
-        <v>1.3930061437218146</v>
+        <v>2.7133537999152377</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="10"/>
-        <v>3.4825153593045366</v>
+        <v>6.7833844997880943</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="10"/>
-        <v>6.9650307186090732</v>
+        <v>13.566768999576189</v>
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="10"/>
-        <v>1.5829615269566077</v>
+        <v>3.0833565908127705</v>
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57090415726303878</v>
+        <v>1.1120302458669007</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94019159900354965</v>
+        <v>0.1266194668424202</v>
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="10"/>
-        <v>0.24668638304463869</v>
+        <v>8.2662760582604644</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6167159576115967</v>
+        <v>20.665690145651162</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="10"/>
-        <v>1.2334319152231934</v>
+        <v>41.331380291302324</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28032543527799852</v>
+        <v>9.3934955207505286</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="10"/>
-        <v>0.10110097665763881</v>
+        <v>3.3878180566641247</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17754774595532385</v>
+        <v>0.34811609873512539</v>
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="10"/>
-        <v>6.9140628597629599</v>
+        <v>4.2208769511620012</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="10"/>
-        <v>17.2851571494074</v>
+        <v>10.552192377905003</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="10"/>
-        <v>34.5703142988148</v>
+        <v>21.104384755810006</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="10"/>
-        <v>7.8568896133670005</v>
+        <v>4.7964510808659107</v>
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="10"/>
-        <v>2.8336323195749835</v>
+        <v>1.7298676029352464</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20606476939046925</v>
+        <v>0.10876965640902558</v>
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="10"/>
-        <v>6.318258980374404</v>
+        <v>8.8740915070306432</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="10"/>
-        <v>15.795647450936009</v>
+        <v>22.185228767576607</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="10"/>
-        <v>31.591294901872018</v>
+        <v>44.370457535153214</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="10"/>
-        <v>7.1798397504254599</v>
+        <v>10.084194894353004</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="10"/>
-        <v>2.5894504017927886</v>
+        <v>3.6369227487830504</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20221619666040358</v>
+        <v>0.28564373452239356</v>
       </c>
       <c r="B125">
         <f t="shared" ref="B125:F140" ca="1" si="11">-LN($A125)*B$11</f>
-        <v>6.3936714937028594</v>
+        <v>5.0120397126360725</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="11"/>
-        <v>15.984178734257149</v>
+        <v>12.530099281590182</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="11"/>
-        <v>31.968357468514299</v>
+        <v>25.060198563180364</v>
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="11"/>
-        <v>7.2655357882987044</v>
+        <v>5.6954996734500831</v>
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="11"/>
-        <v>2.6203571695503522</v>
+        <v>2.0541146363262595</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89090768139460985</v>
+        <v>0.26487941462670295</v>
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="11"/>
-        <v>0.46205787692474731</v>
+        <v>5.313922382808645</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="11"/>
-        <v>1.1551446923118682</v>
+        <v>13.284805957021613</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="11"/>
-        <v>2.3102893846237365</v>
+        <v>26.569611914043225</v>
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="11"/>
-        <v>0.52506576923266746</v>
+        <v>6.0385481622825514</v>
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="11"/>
-        <v>0.18936798234620791</v>
+        <v>2.1778370421346906</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9897097363828713</v>
+        <v>0.16194638947673134</v>
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="11"/>
-        <v>4.1374297666335692E-2</v>
+        <v>7.2819597106994758</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10343574416583923</v>
+        <v>18.204899276748691</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="11"/>
-        <v>0.20687148833167845</v>
+        <v>36.409798553497382</v>
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7016247348108747E-2</v>
+        <v>8.27495421670395</v>
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="11"/>
-        <v>1.6956679371449054E-2</v>
+        <v>2.9844097174997852</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93160240713362708</v>
+        <v>0.15781769262455891</v>
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28339662841971852</v>
+        <v>7.3852590251767749</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="11"/>
-        <v>0.70849157104929628</v>
+        <v>18.463147562941938</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="11"/>
-        <v>1.4169831420985926</v>
+        <v>36.926295125883875</v>
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32204162320422564</v>
+        <v>8.3923398013372452</v>
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="11"/>
-        <v>0.11614615918840923</v>
+        <v>3.0267455021216292</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <f t="shared" ca="1" si="3"/>
-        <v>4.0214262759631469E-2</v>
+        <v>0.12561608262171187</v>
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="11"/>
-        <v>12.854134205065288</v>
+        <v>8.2980999471762562</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="11"/>
-        <v>32.135335512663218</v>
+        <v>20.74524986794064</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="11"/>
-        <v>64.270671025326436</v>
+        <v>41.490499735881279</v>
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="11"/>
-        <v>14.606970687574192</v>
+        <v>9.4296590308821102</v>
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="11"/>
-        <v>5.2680877889611839</v>
+        <v>3.4008606340886298</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5800241726123081</v>
+        <v>0.19179207205722504</v>
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="11"/>
-        <v>2.1787419975694324</v>
+        <v>6.6053738072496113</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="11"/>
-        <v>5.4468549939235809</v>
+        <v>16.513434518124029</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="11"/>
-        <v>10.893709987847162</v>
+        <v>33.026869036248058</v>
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="11"/>
-        <v>2.4758431790561732</v>
+        <v>7.5061065991472864</v>
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="11"/>
-        <v>0.89292704818419366</v>
+        <v>2.7071204128072179</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12052879822385609</v>
+        <v>0.36348767315352926</v>
       </c>
       <c r="B131">
         <f t="shared" ca="1" si="11"/>
-        <v>8.4634662607810114</v>
+        <v>4.0480395765127852</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="11"/>
-        <v>21.158665651952528</v>
+        <v>10.120098941281963</v>
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="11"/>
-        <v>42.317331303905057</v>
+        <v>20.240197882563926</v>
       </c>
       <c r="E131">
         <f t="shared" ca="1" si="11"/>
-        <v>9.6175752963420589</v>
+        <v>4.6000449733099833</v>
       </c>
       <c r="F131">
         <f t="shared" ca="1" si="11"/>
-        <v>3.4686337134348406</v>
+        <v>1.659032613324912</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31737007522910865</v>
+        <v>0.97927265463141111</v>
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="11"/>
-        <v>4.5907470251049691</v>
+        <v>8.3780688111448218E-2</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="11"/>
-        <v>11.476867562762422</v>
+        <v>0.20945172027862055</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="11"/>
-        <v>22.953735125524844</v>
+        <v>0.4189034405572411</v>
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="11"/>
-        <v>5.2167579830738289</v>
+        <v>9.5205327399372985E-2</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="11"/>
-        <v>1.881453698813512</v>
+        <v>3.4336347586659106E-2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21094334211394528</v>
+        <v>0.44819409268113031</v>
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="11"/>
-        <v>6.2246628094048857</v>
+        <v>3.2101155911912689</v>
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="11"/>
-        <v>15.561657023512215</v>
+        <v>8.0252889779781729</v>
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="11"/>
-        <v>31.123314047024429</v>
+        <v>16.050577955956346</v>
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="11"/>
-        <v>7.0734804652328256</v>
+        <v>3.6478586263537149</v>
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="11"/>
-        <v>2.5510913153298711</v>
+        <v>1.3156211439308478</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34936421320639943</v>
+        <v>0.24219610360470234</v>
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="11"/>
-        <v>4.2065612403712098</v>
+        <v>5.6720301420164061</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="11"/>
-        <v>10.516403100928024</v>
+        <v>14.180075355041016</v>
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="11"/>
-        <v>21.032806201856047</v>
+        <v>28.360150710082031</v>
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7801832276945566</v>
+        <v>6.4454887977459165</v>
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="11"/>
-        <v>1.7240005083488565</v>
+        <v>2.3246025172198386</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <f t="shared" ref="A135:A154" ca="1" si="12">RAND()</f>
-        <v>0.44904418444954985</v>
+        <v>0.92953406779973413</v>
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="11"/>
-        <v>3.2025359589401337</v>
+        <v>0.29228728297732615</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="11"/>
-        <v>8.0063398973503332</v>
+        <v>0.73071820744331539</v>
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="11"/>
-        <v>16.012679794700666</v>
+        <v>1.4614364148866308</v>
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="11"/>
-        <v>3.639245407886516</v>
+        <v>0.33214463974696157</v>
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="11"/>
-        <v>1.3125147372705466</v>
+        <v>0.11978987007267465</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <f t="shared" ca="1" si="12"/>
-        <v>0.71500094141759463</v>
+        <v>0.4567014303385778</v>
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="11"/>
-        <v>1.3418856784841269</v>
+        <v>3.1349017075856858</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="11"/>
-        <v>3.3547141962103173</v>
+        <v>7.8372542689642142</v>
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="11"/>
-        <v>6.7094283924206346</v>
+        <v>15.674508537928428</v>
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5248700891865079</v>
+        <v>3.5623883040746431</v>
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="11"/>
-        <v>0.54995314691972419</v>
+        <v>1.2847957817974123</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <f t="shared" ca="1" si="12"/>
-        <v>0.60540434936404408</v>
+        <v>0.18285431267162144</v>
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="11"/>
-        <v>2.0074347925551441</v>
+        <v>6.796262195282547</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="11"/>
-        <v>5.0185869813878607</v>
+        <v>16.990655488206368</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="11"/>
-        <v>10.037173962775721</v>
+        <v>33.981310976412736</v>
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="11"/>
-        <v>2.2811759006308456</v>
+        <v>7.7230252219119864</v>
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="11"/>
-        <v>0.82271917727669841</v>
+        <v>2.7853533587223556</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <f t="shared" ca="1" si="12"/>
-        <v>1.1112396689916482E-2</v>
+        <v>2.8636747597333811E-2</v>
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="11"/>
-        <v>17.998775899723011</v>
+        <v>14.2122580195356</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="11"/>
-        <v>44.996939749307529</v>
+        <v>35.530645048838998</v>
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="11"/>
-        <v>89.993879498615058</v>
+        <v>71.061290097677997</v>
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="11"/>
-        <v>20.453154431503425</v>
+        <v>16.150293204017728</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="11"/>
-        <v>7.3765474998864802</v>
+        <v>5.8246959096457376</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <f t="shared" ca="1" si="12"/>
-        <v>0.95358543314804822</v>
+        <v>0.58518302039091252</v>
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="11"/>
-        <v>0.19010503371781398</v>
+        <v>2.1433225012409416</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47526258429453494</v>
+        <v>5.358306253102354</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="11"/>
-        <v>0.95052516858906988</v>
+        <v>10.716612506204708</v>
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="11"/>
-        <v>0.21602844740660682</v>
+        <v>2.4355937514101611</v>
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="11"/>
-        <v>7.7911899064677867E-2</v>
+        <v>0.87841086116432032</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <f t="shared" ca="1" si="12"/>
-        <v>0.67972811192622529</v>
+        <v>8.9277968018400822E-3</v>
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="11"/>
-        <v>1.5442495846803301</v>
+        <v>18.874342533010861</v>
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="11"/>
-        <v>3.8606239617008251</v>
+        <v>47.185856332527152</v>
       </c>
       <c r="D140">
         <f t="shared" ca="1" si="11"/>
-        <v>7.7212479234016502</v>
+        <v>94.371712665054304</v>
       </c>
       <c r="E140">
         <f t="shared" ca="1" si="11"/>
-        <v>1.7548290735003753</v>
+        <v>21.44811651478507</v>
       </c>
       <c r="F140">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63288917404931566</v>
+        <v>7.7353862840208452</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <f t="shared" ca="1" si="12"/>
-        <v>0.76253164515471239</v>
+        <v>0.47827490783349869</v>
       </c>
       <c r="B141">
         <f t="shared" ref="B141:F154" ca="1" si="13">-LN($A141)*B$11</f>
-        <v>1.0844450780780088</v>
+        <v>2.9502783632751699</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="13"/>
-        <v>2.711112695195022</v>
+        <v>7.3756959081879252</v>
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="13"/>
-        <v>5.4222253903900439</v>
+        <v>14.75139181637585</v>
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="13"/>
-        <v>1.2323239523613738</v>
+        <v>3.3525890491763297</v>
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="13"/>
-        <v>0.44444470413033149</v>
+        <v>1.2091304767521189</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <f t="shared" ca="1" si="12"/>
-        <v>0.80884164231740319</v>
+        <v>0.27436650375257243</v>
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="13"/>
-        <v>0.84860850422600176</v>
+        <v>5.1731618458168471</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1215212605650042</v>
+        <v>12.932904614542117</v>
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="13"/>
-        <v>4.2430425211300085</v>
+        <v>25.865809229084235</v>
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="13"/>
-        <v>0.96432784571136576</v>
+        <v>5.8785930066100542</v>
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="13"/>
-        <v>0.34779037058442697</v>
+        <v>2.1201482974659212</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <f t="shared" ca="1" si="12"/>
-        <v>1.7002434677207079E-2</v>
+        <v>0.34673460737576378</v>
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="13"/>
-        <v>16.297594915496393</v>
+        <v>4.2367824476089924</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="13"/>
-        <v>40.743987288740982</v>
+        <v>10.59195611902248</v>
       </c>
       <c r="D143">
         <f t="shared" ca="1" si="13"/>
-        <v>81.487974577481964</v>
+        <v>21.183912238044961</v>
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="13"/>
-        <v>18.519994222154995</v>
+        <v>4.8145255086465824</v>
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="13"/>
-        <v>6.6793421784821287</v>
+        <v>1.736386249020079</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <f t="shared" ca="1" si="12"/>
-        <v>0.49239168477222939</v>
+        <v>0.45992124433629877</v>
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="13"/>
-        <v>2.8339230878179928</v>
+        <v>3.1068000484852836</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="13"/>
-        <v>7.0848077195449823</v>
+        <v>7.7670001212132087</v>
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="13"/>
-        <v>14.169615439089965</v>
+        <v>15.534000242426417</v>
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="13"/>
-        <v>3.2203671452477196</v>
+        <v>3.530454600551459</v>
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="13"/>
-        <v>1.1614438884499971</v>
+        <v>1.2732787083956081</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145">
         <f t="shared" ca="1" si="12"/>
-        <v>0.65630689253904617</v>
+        <v>1.7277947561377016E-2</v>
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6845071017645052</v>
+        <v>16.233297192175424</v>
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="13"/>
-        <v>4.2112677544112636</v>
+        <v>40.583242980438563</v>
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="13"/>
-        <v>8.4225355088225271</v>
+        <v>81.166485960877125</v>
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9142126156414834</v>
+        <v>18.446928627472076</v>
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="13"/>
-        <v>0.69037176301823988</v>
+        <v>6.6529906525309119</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146">
         <f t="shared" ca="1" si="12"/>
-        <v>0.21946975249533185</v>
+        <v>0.56968065774956567</v>
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="13"/>
-        <v>6.0661634312241919</v>
+        <v>2.2507172988565372</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="13"/>
-        <v>15.165408578060479</v>
+        <v>5.6267932471413431</v>
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="13"/>
-        <v>30.330817156120958</v>
+        <v>11.253586494282686</v>
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="13"/>
-        <v>6.893367535482037</v>
+        <v>2.5576332941551563</v>
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="13"/>
-        <v>2.4861325537804064</v>
+        <v>0.92242512248218733</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147">
         <f t="shared" ca="1" si="12"/>
-        <v>0.35201067891008231</v>
+        <v>0.96561332604485661</v>
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="13"/>
-        <v>4.1763750641259527</v>
+        <v>0.13996723400776134</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="13"/>
-        <v>10.440937660314882</v>
+        <v>0.34991808501940336</v>
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="13"/>
-        <v>20.881875320629764</v>
+        <v>0.69983617003880672</v>
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="13"/>
-        <v>4.7458807546885833</v>
+        <v>0.15905367500881973</v>
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="13"/>
-        <v>1.7116291246417839</v>
+        <v>5.7363620494984162E-2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148">
         <f t="shared" ca="1" si="12"/>
-        <v>0.12654204923571644</v>
+        <v>0.9889919757725576</v>
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="13"/>
-        <v>8.2687224840937859</v>
+        <v>4.4276243472056741E-2</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="13"/>
-        <v>20.671806210234465</v>
+        <v>0.11069060868014186</v>
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="13"/>
-        <v>41.343612420468929</v>
+        <v>0.22138121736028371</v>
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="13"/>
-        <v>9.3962755501065764</v>
+        <v>5.0313913036428119E-2</v>
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="13"/>
-        <v>3.3888206902023712</v>
+        <v>1.8146001422974074E-2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149">
         <f t="shared" ca="1" si="12"/>
-        <v>0.90693287809756873</v>
+        <v>0.60377547157724543</v>
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="13"/>
-        <v>0.39074734363209707</v>
+        <v>2.0182115438298589</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="13"/>
-        <v>0.97686835908024272</v>
+        <v>5.045528859574647</v>
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="13"/>
-        <v>1.9537367181604854</v>
+        <v>10.091057719149294</v>
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="13"/>
-        <v>0.44403107230920125</v>
+        <v>2.2934222088975673</v>
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="13"/>
-        <v>0.16014235394758078</v>
+        <v>0.82713587861879467</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150">
         <f t="shared" ca="1" si="12"/>
-        <v>0.27561727101091715</v>
+        <v>0.12487518621455695</v>
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1549682994317969</v>
+        <v>8.3217622032274718</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="13"/>
-        <v>12.887420748579492</v>
+        <v>20.80440550806868</v>
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="13"/>
-        <v>25.774841497158985</v>
+        <v>41.608811016137359</v>
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="13"/>
-        <v>5.8579185220815875</v>
+        <v>9.4565479582130365</v>
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="13"/>
-        <v>2.1126919259966384</v>
+        <v>3.410558280011259</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151">
         <f t="shared" ca="1" si="12"/>
-        <v>0.40355022599132706</v>
+        <v>0.75669190880759063</v>
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="13"/>
-        <v>3.6298172928146721</v>
+        <v>1.1151963922944426</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="13"/>
-        <v>9.0745432320366799</v>
+        <v>2.7879909807361063</v>
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="13"/>
-        <v>18.14908646407336</v>
+        <v>5.5759819614722126</v>
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="13"/>
-        <v>4.1247923781984914</v>
+        <v>1.2672686276073213</v>
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="13"/>
-        <v>1.4876300380388001</v>
+        <v>0.45704770176001747</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152">
         <f t="shared" ca="1" si="12"/>
-        <v>2.7344421360204541E-2</v>
+        <v>0.14832589599587054</v>
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="13"/>
-        <v>14.396970972495573</v>
+        <v>7.6333737043788306</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="13"/>
-        <v>35.992427431238937</v>
+        <v>19.083434260947076</v>
       </c>
       <c r="D152">
         <f t="shared" ca="1" si="13"/>
-        <v>71.984854862477874</v>
+        <v>38.166868521894152</v>
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="13"/>
-        <v>16.360194286926788</v>
+        <v>8.67428830043049</v>
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="13"/>
-        <v>5.900397939547366</v>
+        <v>3.1284318460568978</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153">
         <f t="shared" ca="1" si="12"/>
-        <v>2.2512173409395042E-2</v>
+        <v>0.42059273785225759</v>
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="13"/>
-        <v>15.174796302655205</v>
+        <v>3.4643611280984477</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="13"/>
-        <v>37.936990756638011</v>
+        <v>8.6609028202461182</v>
       </c>
       <c r="D153">
         <f t="shared" ca="1" si="13"/>
-        <v>75.873981513276021</v>
+        <v>17.321805640492236</v>
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="13"/>
-        <v>17.244086707562733</v>
+        <v>3.9367740092027819</v>
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="13"/>
-        <v>6.2191788125636087</v>
+        <v>1.4198201344665768</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154">
         <f t="shared" ca="1" si="12"/>
-        <v>0.65991968234842235</v>
+        <v>9.8179272307872156E-2</v>
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="13"/>
-        <v>1.6625485791135644</v>
+        <v>9.2838406487841354</v>
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="13"/>
-        <v>4.1563714477839113</v>
+        <v>23.209601621960338</v>
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="13"/>
-        <v>8.3127428955678226</v>
+        <v>46.419203243920677</v>
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="13"/>
-        <v>1.889259748992687</v>
+        <v>10.549818919072882</v>
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="13"/>
-        <v>0.68137236848916571</v>
+        <v>3.8048527249115311</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31716039336052171</v>
+        <v>0.86088846076750192</v>
       </c>
       <c r="B155">
         <f t="shared" ref="B155:F174" ca="1" si="14">-LN($A155)*B$11</f>
-        <v>4.593390641279119</v>
+        <v>0.59916131637261227</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="4"/>
-        <v>11.483476603197797</v>
+        <v>1.4979032909315306</v>
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="4"/>
-        <v>22.966953206395594</v>
+        <v>2.9958065818630613</v>
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="4"/>
-        <v>5.219762092362636</v>
+        <v>0.68086513224160494</v>
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8825371480652127</v>
+        <v>0.24555791654615258</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11794259042875266</v>
+        <v>0.97992796406921179</v>
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="14"/>
-        <v>8.5502291787873261</v>
+        <v>8.1104864284185507E-2</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="4"/>
-        <v>21.375572946968315</v>
+        <v>0.20276216071046377</v>
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="4"/>
-        <v>42.751145893936631</v>
+        <v>0.40552432142092754</v>
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="4"/>
-        <v>9.7161695213492347</v>
+        <v>9.2164618504756268E-2</v>
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5041922863882484</v>
+        <v>3.3239698477125205E-2</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82397142585667504</v>
+        <v>0.95872102140033955</v>
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="14"/>
-        <v>0.77447770812937167</v>
+        <v>0.16862060861906669</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9361942703234292</v>
+        <v>0.42155152154766673</v>
       </c>
       <c r="D157">
         <f t="shared" ca="1" si="4"/>
-        <v>3.8723885406468583</v>
+        <v>0.84310304309533346</v>
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8800883046924679</v>
+        <v>0.19161432797621217</v>
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31740889677433265</v>
+        <v>6.9106806811092908E-2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3951958397642672</v>
+        <v>0.45769940748096827</v>
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="14"/>
-        <v>3.713495360304448</v>
+        <v>3.1261705035240737</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2837384007611199</v>
+        <v>7.8154262588101844</v>
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="4"/>
-        <v>18.56747680152224</v>
+        <v>15.630852517620369</v>
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2198810912550551</v>
+        <v>3.5524664812773565</v>
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5219243279936263</v>
+        <v>1.2812174194770793</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0160168050569469E-2</v>
+        <v>0.51526910004670057</v>
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="14"/>
-        <v>10.094914180834159</v>
+        <v>2.6522639616967747</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="4"/>
-        <v>25.237285452085398</v>
+        <v>6.630659904241937</v>
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="4"/>
-        <v>50.474570904170797</v>
+        <v>13.261319808483874</v>
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="4"/>
-        <v>11.471493387311545</v>
+        <v>3.0139363201099716</v>
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1372599101779342</v>
+        <v>1.0869934269249077</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5744681175112476</v>
+        <v>0.6829335127721281</v>
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="14"/>
-        <v>2.2172427171890523</v>
+        <v>1.5254310800712174</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5431067929726305</v>
+        <v>3.8135777001780435</v>
       </c>
       <c r="D160">
         <f t="shared" ca="1" si="4"/>
-        <v>11.086213585945261</v>
+        <v>7.6271554003560871</v>
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5195939968057415</v>
+        <v>1.7334444091718382</v>
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="4"/>
-        <v>0.90870603163485753</v>
+        <v>0.62517667216033501</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7772977572409707E-2</v>
+        <v>0.31090775986303365</v>
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="14"/>
-        <v>14.334767043129114</v>
+        <v>4.6730360115012415</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="4"/>
-        <v>35.836917607822784</v>
+        <v>11.682590028753104</v>
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="4"/>
-        <v>71.673835215645568</v>
+        <v>23.365180057506208</v>
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="4"/>
-        <v>16.289508003555813</v>
+        <v>5.310268194887775</v>
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="4"/>
-        <v>5.874904525872588</v>
+        <v>1.9151786932382138</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63881323240076426</v>
+        <v>0.79997300134722527</v>
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="14"/>
-        <v>1.7925725935600147</v>
+        <v>0.89270920079866156</v>
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4814314839000371</v>
+        <v>2.231773001996654</v>
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="4"/>
-        <v>8.9628629678000742</v>
+        <v>4.4635460039933079</v>
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0370143108636531</v>
+        <v>1.0144422736348429</v>
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73466089900000608</v>
+        <v>0.36586442655682849</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33309559737975736</v>
+        <v>0.67879978562486865</v>
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="14"/>
-        <v>4.3973030039302268</v>
+        <v>1.5497162457479285</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="4"/>
-        <v>10.993257509825566</v>
+        <v>3.8742906143698215</v>
       </c>
       <c r="D163">
         <f t="shared" ca="1" si="4"/>
-        <v>21.986515019651133</v>
+        <v>7.7485812287396429</v>
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9969352317388944</v>
+        <v>1.7610411883499189</v>
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8021733622664864</v>
+        <v>0.63512960891308545</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9451305814880141</v>
+        <v>0.83815637208929095</v>
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="14"/>
-        <v>0.22572871826310431</v>
+        <v>0.70620237747768888</v>
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56432179565776075</v>
+        <v>1.7655059436942222</v>
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1286435913155215</v>
+        <v>3.5310118873884444</v>
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25650990711716404</v>
+        <v>0.80250270167919202</v>
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2511769779960784E-2</v>
+        <v>0.28942720388429871</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <f t="shared" ca="1" si="3"/>
-        <v>9.0813727804374134E-3</v>
+        <v>0.22626165636377471</v>
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="14"/>
-        <v>18.806119642094945</v>
+        <v>5.944252711557259</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="4"/>
-        <v>47.015299105237361</v>
+        <v>14.860631778893147</v>
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="4"/>
-        <v>94.030598210474722</v>
+        <v>29.721263557786294</v>
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="4"/>
-        <v>21.370590502380622</v>
+        <v>6.7548326267696135</v>
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="4"/>
-        <v>7.7074260828257977</v>
+        <v>2.4361691440808437</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46671992878745805</v>
+        <v>0.90998326921373995</v>
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="14"/>
-        <v>3.0481037017744153</v>
+        <v>0.37731626047865185</v>
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="4"/>
-        <v>7.6202592544360384</v>
+        <v>0.94329065119662969</v>
       </c>
       <c r="D166">
         <f t="shared" ca="1" si="4"/>
-        <v>15.240518508872077</v>
+        <v>1.8865813023932594</v>
       </c>
       <c r="E166">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4637542065618359</v>
+        <v>0.4287684778166499</v>
       </c>
       <c r="F166">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2492228285960718</v>
+        <v>0.15463781167157864</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10516440173482</v>
+        <v>0.3170780106353539</v>
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="14"/>
-        <v>9.0089216899812641</v>
+        <v>4.5944297801910752</v>
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="4"/>
-        <v>22.52230422495316</v>
+        <v>11.486074450477687</v>
       </c>
       <c r="D167">
         <f t="shared" ca="1" si="4"/>
-        <v>45.04460844990632</v>
+        <v>22.972148900955375</v>
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="4"/>
-        <v>10.237411011342347</v>
+        <v>5.2209429320353129</v>
       </c>
       <c r="F167">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6921810204841248</v>
+        <v>1.8829630246684734</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28781622772226645</v>
+        <v>4.7419254512254261E-2</v>
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="14"/>
-        <v>4.98173240281624</v>
+        <v>12.194907677698843</v>
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="4"/>
-        <v>12.454331007040601</v>
+        <v>30.487269194247109</v>
       </c>
       <c r="D168">
         <f t="shared" ca="1" si="4"/>
-        <v>24.908662014081202</v>
+        <v>60.974538388494217</v>
       </c>
       <c r="E168">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6610595486548183</v>
+        <v>13.857849633748687</v>
       </c>
       <c r="F168">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0416936077115739</v>
+        <v>4.9979129826634603</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33016737890342707</v>
+        <v>0.40315950520534571</v>
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="14"/>
-        <v>4.4326221772410053</v>
+        <v>3.6336920031489983</v>
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="4"/>
-        <v>11.081555443102513</v>
+        <v>9.0842300078724953</v>
       </c>
       <c r="D169">
         <f t="shared" ca="1" si="4"/>
-        <v>22.163110886205025</v>
+        <v>18.168460015744991</v>
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0370706559556879</v>
+        <v>4.1291954581238617</v>
       </c>
       <c r="F169">
         <f t="shared" ca="1" si="4"/>
-        <v>1.816648433295494</v>
+        <v>1.4892180340774583</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66996760141104317</v>
+        <v>0.93872679319489349</v>
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="14"/>
-        <v>1.6021036954769599</v>
+        <v>0.25292318869408803</v>
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="4"/>
-        <v>4.0052592386923997</v>
+        <v>0.63230797173522002</v>
       </c>
       <c r="D170">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0105184773847995</v>
+        <v>1.26461594347044</v>
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8205723812238181</v>
+        <v>0.28741271442510008</v>
       </c>
       <c r="F170">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65659987519547536</v>
+        <v>0.10365704454675739</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98199681292816254</v>
+        <v>0.14938976468508047</v>
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="14"/>
-        <v>7.266886449442915E-2</v>
+        <v>7.6047860724039227</v>
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18167216123607288</v>
+        <v>19.011965181009806</v>
       </c>
       <c r="D171">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36334432247214576</v>
+        <v>38.023930362019613</v>
       </c>
       <c r="E171">
         <f t="shared" ca="1" si="4"/>
-        <v>8.2578255107305862E-2</v>
+        <v>8.641802355004458</v>
       </c>
       <c r="F171">
         <f t="shared" ca="1" si="4"/>
-        <v>2.9782321514110307E-2</v>
+        <v>3.1167156034442307</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97255805004926432</v>
+        <v>0.5053813461498684</v>
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="14"/>
-        <v>0.11130205481455799</v>
+        <v>2.7297679751655033</v>
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27825513703639498</v>
+        <v>6.824419937913758</v>
       </c>
       <c r="D172">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55651027407278997</v>
+        <v>13.648839875827516</v>
       </c>
       <c r="E172">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12647960774381592</v>
+        <v>3.1020090626880723</v>
       </c>
       <c r="F172">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5615596235474586E-2</v>
+        <v>1.1187573668711079</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43137574289439917</v>
+        <v>0.94997850531195771</v>
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="14"/>
-        <v>3.363103101643794</v>
+        <v>0.20526368252373994</v>
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="4"/>
-        <v>8.4077577541094843</v>
+        <v>0.51315920630934986</v>
       </c>
       <c r="D173">
         <f t="shared" ca="1" si="4"/>
-        <v>16.815515508218969</v>
+        <v>1.0263184126186997</v>
       </c>
       <c r="E173">
         <f t="shared" ca="1" si="4"/>
-        <v>3.8217080700497661</v>
+        <v>0.23325418468606815</v>
       </c>
       <c r="F173">
         <f t="shared" ca="1" si="4"/>
-        <v>1.378320943296637</v>
+        <v>8.4124460050713099E-2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31956847069377914</v>
+        <v>2.9583995838842192E-2</v>
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="14"/>
-        <v>4.5631348894156893</v>
+        <v>14.082086979972255</v>
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="14"/>
-        <v>11.407837223539223</v>
+        <v>35.205217449930636</v>
       </c>
       <c r="D174">
         <f t="shared" ca="1" si="14"/>
-        <v>22.815674447078447</v>
+        <v>70.410434899861272</v>
       </c>
       <c r="E174">
         <f t="shared" ca="1" si="14"/>
-        <v>5.1853805561541932</v>
+        <v>16.002371568150291</v>
       </c>
       <c r="F174">
         <f t="shared" ca="1" si="14"/>
-        <v>1.8701372497605284</v>
+        <v>5.7713471229394484</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10955204504773697</v>
+        <v>0.63771838417195259</v>
       </c>
       <c r="B175">
         <f t="shared" ref="B175:F190" ca="1" si="15">-LN($A175)*B$11</f>
-        <v>8.8454221816157172</v>
+        <v>1.7994339888160753</v>
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="15"/>
-        <v>22.113555454039293</v>
+        <v>4.498584972040188</v>
       </c>
       <c r="D175">
         <f t="shared" ca="1" si="15"/>
-        <v>44.227110908078586</v>
+        <v>8.9971699440803761</v>
       </c>
       <c r="E175">
         <f t="shared" ca="1" si="15"/>
-        <v>10.051616115472408</v>
+        <v>2.0448113509273584</v>
       </c>
       <c r="F175">
         <f t="shared" ca="1" si="15"/>
-        <v>3.6251730252523431</v>
+        <v>0.73747294623609649</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27037839517671214</v>
+        <v>0.58392382249452923</v>
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="15"/>
-        <v>5.2317313499994818</v>
+        <v>2.1519389823843751</v>
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="15"/>
-        <v>13.079328374998704</v>
+        <v>5.3798474559609382</v>
       </c>
       <c r="D176">
         <f t="shared" ca="1" si="15"/>
-        <v>26.158656749997409</v>
+        <v>10.759694911921876</v>
       </c>
       <c r="E176">
         <f t="shared" ca="1" si="15"/>
-        <v>5.9451492613630483</v>
+        <v>2.4453852072549718</v>
       </c>
       <c r="F176">
         <f t="shared" ca="1" si="15"/>
-        <v>2.1441521926227383</v>
+        <v>0.88194220589523575</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23424214206414917</v>
+        <v>0.34243747078961984</v>
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="15"/>
-        <v>5.8055996140397168</v>
+        <v>4.2866648199394142</v>
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="15"/>
-        <v>14.513999035099292</v>
+        <v>10.716662049848535</v>
       </c>
       <c r="D177">
         <f t="shared" ca="1" si="15"/>
-        <v>29.027998070198585</v>
+        <v>21.433324099697071</v>
       </c>
       <c r="E177">
         <f t="shared" ca="1" si="15"/>
-        <v>6.5972722886814967</v>
+        <v>4.8712100226584258</v>
       </c>
       <c r="F177">
         <f t="shared" ca="1" si="15"/>
-        <v>2.3793441041146379</v>
+        <v>1.7568298442374648</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87849987062211388</v>
+        <v>0.25810023529825965</v>
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="15"/>
-        <v>0.51815807450540752</v>
+        <v>5.4176290424103239</v>
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="15"/>
-        <v>1.2953951862635189</v>
+        <v>13.544072606025811</v>
       </c>
       <c r="D178">
         <f t="shared" ca="1" si="15"/>
-        <v>2.5907903725270378</v>
+        <v>27.088145212051622</v>
       </c>
       <c r="E178">
         <f t="shared" ca="1" si="15"/>
-        <v>0.58881599375614491</v>
+        <v>6.156396639102641</v>
       </c>
       <c r="F178">
         <f t="shared" ca="1" si="15"/>
-        <v>0.21235986660057685</v>
+        <v>2.2203397714796411</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65353459228674704</v>
+        <v>0.96233824991844197</v>
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="15"/>
-        <v>1.7014392537786951</v>
+        <v>0.1535571159012416</v>
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="15"/>
-        <v>4.2535981344467375</v>
+        <v>0.38389278975310404</v>
       </c>
       <c r="D179">
         <f t="shared" ca="1" si="15"/>
-        <v>8.507196268893475</v>
+        <v>0.76778557950620807</v>
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="15"/>
-        <v>1.9334536974757901</v>
+        <v>0.17449672261504728</v>
       </c>
       <c r="F179">
         <f t="shared" ca="1" si="15"/>
-        <v>0.69731116958143247</v>
+        <v>6.2933244221820325E-2</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80618924634404043</v>
+        <v>0.25673280188604819</v>
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="15"/>
-        <v>0.86174706833238224</v>
+        <v>5.4388776652309891</v>
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="15"/>
-        <v>2.1543676708309558</v>
+        <v>13.597194163077473</v>
       </c>
       <c r="D180">
         <f t="shared" ca="1" si="15"/>
-        <v>4.3087353416619116</v>
+        <v>27.194388326154947</v>
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="15"/>
-        <v>0.97925803219588903</v>
+        <v>6.1805428013988521</v>
       </c>
       <c r="F180">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35317502800507472</v>
+        <v>2.2290482234553233</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23738699936468255</v>
+        <v>0.26963708460317659</v>
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="15"/>
-        <v>5.7522542435245851</v>
+        <v>5.2427134209504267</v>
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="15"/>
-        <v>14.380635608811463</v>
+        <v>13.106783552376067</v>
       </c>
       <c r="D181">
         <f t="shared" ca="1" si="15"/>
-        <v>28.761271217622927</v>
+        <v>26.213567104752133</v>
       </c>
       <c r="E181">
         <f t="shared" ca="1" si="15"/>
-        <v>6.536652549459756</v>
+        <v>5.9576288874436676</v>
       </c>
       <c r="F181">
         <f t="shared" ca="1" si="15"/>
-        <v>2.3574812473461417</v>
+        <v>2.1486530413731257</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20571434989229909</v>
+        <v>0.75165027435364851</v>
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="15"/>
-        <v>6.3250668939639949</v>
+        <v>1.141936495625999</v>
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="15"/>
-        <v>15.812667234909988</v>
+        <v>2.8548412390649975</v>
       </c>
       <c r="D182">
         <f t="shared" ca="1" si="15"/>
-        <v>31.625334469819975</v>
+        <v>5.7096824781299951</v>
       </c>
       <c r="E182">
         <f t="shared" ca="1" si="15"/>
-        <v>7.187576015868177</v>
+        <v>1.2976551086659081</v>
       </c>
       <c r="F182">
         <f t="shared" ca="1" si="15"/>
-        <v>2.5922405303131129</v>
+        <v>0.4680067605024586</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25927308057047649</v>
+        <v>0.91402443874627104</v>
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="15"/>
-        <v>5.3994936303925867</v>
+        <v>0.35959187860406022</v>
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="15"/>
-        <v>13.498734075981467</v>
+        <v>0.89897969651015053</v>
       </c>
       <c r="D183">
         <f t="shared" ca="1" si="15"/>
-        <v>26.997468151962934</v>
+        <v>1.7979593930203011</v>
       </c>
       <c r="E183">
         <f t="shared" ca="1" si="15"/>
-        <v>6.1357882163552127</v>
+        <v>0.40862713477734119</v>
       </c>
       <c r="F183">
         <f t="shared" ca="1" si="15"/>
-        <v>2.2129072255707323</v>
+        <v>0.14737372073936894</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5332653443804668</v>
+        <v>0.21061797931488146</v>
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="15"/>
-        <v>2.514944587340695</v>
+        <v>6.2308372442427933</v>
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="15"/>
-        <v>6.2873614683517376</v>
+        <v>15.577093110606983</v>
       </c>
       <c r="D184">
         <f t="shared" ca="1" si="15"/>
-        <v>12.574722936703475</v>
+        <v>31.154186221213966</v>
       </c>
       <c r="E184">
         <f t="shared" ca="1" si="15"/>
-        <v>2.8578915765235173</v>
+        <v>7.0804968684577201</v>
       </c>
       <c r="F184">
         <f t="shared" ca="1" si="15"/>
-        <v>1.0307149948117602</v>
+        <v>2.5536218214109807</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95774471216338763</v>
+        <v>7.0271285796278615E-2</v>
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="15"/>
-        <v>0.17269606607937438</v>
+        <v>10.621568064019762</v>
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43174016519843594</v>
+        <v>26.553920160049405</v>
       </c>
       <c r="D185">
         <f t="shared" ca="1" si="15"/>
-        <v>0.86348033039687189</v>
+        <v>53.107840320098809</v>
       </c>
       <c r="E185">
         <f t="shared" ca="1" si="15"/>
-        <v>0.19624552963565273</v>
+        <v>12.069963709113367</v>
       </c>
       <c r="F185">
         <f t="shared" ca="1" si="15"/>
-        <v>7.0777076262038677E-2</v>
+        <v>4.3531016655818693</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90383076541234386</v>
+        <v>0.15496247773679317</v>
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="15"/>
-        <v>0.40445257007016333</v>
+        <v>7.4582890819449323</v>
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="15"/>
-        <v>1.0111314251754084</v>
+        <v>18.64572270486233</v>
       </c>
       <c r="D186">
         <f t="shared" ca="1" si="15"/>
-        <v>2.0222628503508169</v>
+        <v>37.291445409724659</v>
       </c>
       <c r="E186">
         <f t="shared" ca="1" si="15"/>
-        <v>0.45960519326154931</v>
+        <v>8.4753285022101519</v>
       </c>
       <c r="F186">
         <f t="shared" ca="1" si="15"/>
-        <v>0.16575925002875547</v>
+        <v>3.0566758532561198</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <f t="shared" ca="1" si="3"/>
-        <v>8.9241480129852113E-2</v>
+        <v>0.62987207197978667</v>
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="15"/>
-        <v>9.6656372944360101</v>
+        <v>1.8489541622625911</v>
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="15"/>
-        <v>24.164093236090025</v>
+        <v>4.6223854056564777</v>
       </c>
       <c r="D187">
         <f t="shared" ca="1" si="15"/>
-        <v>48.32818647218005</v>
+        <v>9.2447708113129554</v>
       </c>
       <c r="E187">
         <f t="shared" ca="1" si="15"/>
-        <v>10.983678743677284</v>
+        <v>2.1010842752983994</v>
       </c>
       <c r="F187">
         <f t="shared" ca="1" si="15"/>
-        <v>3.9613267600147584</v>
+        <v>0.75776809928794719</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1524472515998547E-2</v>
+        <v>0.86374774750624717</v>
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="15"/>
-        <v>13.827964518061744</v>
+        <v>0.58589804684474533</v>
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="15"/>
-        <v>34.569911295154363</v>
+        <v>1.4647451171118633</v>
       </c>
       <c r="D188">
         <f t="shared" ca="1" si="15"/>
-        <v>69.139822590308725</v>
+        <v>2.9294902342237266</v>
       </c>
       <c r="E188">
         <f t="shared" ca="1" si="15"/>
-        <v>15.713596043251984</v>
+        <v>0.66579323505084698</v>
       </c>
       <c r="F188">
         <f t="shared" ca="1" si="15"/>
-        <v>5.6671985729761252</v>
+        <v>0.2401221503462071</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63153008749809891</v>
+        <v>0.67406774468471831</v>
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="15"/>
-        <v>1.838438775329343</v>
+        <v>1.5776986468764131</v>
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5960969383233579</v>
+        <v>3.9442466171910331</v>
       </c>
       <c r="D189">
         <f t="shared" ca="1" si="4"/>
-        <v>9.1921938766467157</v>
+        <v>7.8884932343820662</v>
       </c>
       <c r="E189">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0891349719651626</v>
+        <v>1.7928393714504696</v>
       </c>
       <c r="F189">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75345851447923895</v>
+        <v>0.64659780609689066</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1456154970489489E-2</v>
+        <v>3.4932280035737673E-4</v>
       </c>
       <c r="B190">
         <f t="shared" ca="1" si="15"/>
-        <v>12.732475667909293</v>
+        <v>31.83805653541879</v>
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="4"/>
-        <v>31.831189169773232</v>
+        <v>79.595141338546981</v>
       </c>
       <c r="D190">
         <f t="shared" ca="1" si="4"/>
-        <v>63.662378339546464</v>
+        <v>159.19028267709396</v>
       </c>
       <c r="E190">
         <f t="shared" ca="1" si="4"/>
-        <v>14.468722349896925</v>
+        <v>36.179609699339537</v>
       </c>
       <c r="F190">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2182277327497104</v>
+        <v>13.048383825991309</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47255550611906572</v>
+        <v>0.73769667023388918</v>
       </c>
       <c r="B191">
         <f t="shared" ref="B191:F208" ca="1" si="16">-LN($A191)*B$11</f>
-        <v>2.9984002627196786</v>
+        <v>1.2168902192604358</v>
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4960006567991968</v>
+        <v>3.0422255481510896</v>
       </c>
       <c r="D191">
         <f t="shared" ca="1" si="4"/>
-        <v>14.992001313598394</v>
+        <v>6.0844510963021792</v>
       </c>
       <c r="E191">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4072730258178168</v>
+        <v>1.3828297946141317</v>
       </c>
       <c r="F191">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2288525666883929</v>
+        <v>0.49872549969689994</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98946475256035082</v>
+        <v>0.93504807421210712</v>
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="16"/>
-        <v>4.2364544156032392E-2</v>
+        <v>0.26862933898235142</v>
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10591136039008098</v>
+        <v>0.67157334745587849</v>
       </c>
       <c r="D192">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21182272078016195</v>
+        <v>1.343146694911757</v>
       </c>
       <c r="E192">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8141527450036817E-2</v>
+        <v>0.30526061247994479</v>
       </c>
       <c r="F192">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7362518096734586E-2</v>
+        <v>0.11009399138620959</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12003377715733976</v>
+        <v>0.80554389068947407</v>
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="16"/>
-        <v>8.4799283979838052</v>
+        <v>0.86495035639156503</v>
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="4"/>
-        <v>21.199820994959513</v>
+        <v>2.1623758909789128</v>
       </c>
       <c r="D193">
         <f t="shared" ca="1" si="4"/>
-        <v>42.399641989919026</v>
+        <v>4.3247517819578256</v>
       </c>
       <c r="E193">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6362822704361424</v>
+        <v>0.98289813226314215</v>
       </c>
       <c r="F193">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4753804909769692</v>
+        <v>0.35448785098014962</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <f t="shared" ca="1" si="3"/>
-        <v>5.238437494778625E-2</v>
+        <v>0.74624932456809889</v>
       </c>
       <c r="B194">
         <f t="shared" ca="1" si="16"/>
-        <v>11.796587680565498</v>
+        <v>1.1707820775084394</v>
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="4"/>
-        <v>29.491469201413743</v>
+        <v>2.9269551937710987</v>
       </c>
       <c r="D194">
         <f t="shared" ca="1" si="4"/>
-        <v>58.982938402827486</v>
+        <v>5.8539103875421974</v>
       </c>
       <c r="E194">
         <f t="shared" ca="1" si="4"/>
-        <v>13.405213273369885</v>
+        <v>1.330434178986863</v>
       </c>
       <c r="F194">
         <f t="shared" ref="C194:F207" ca="1" si="17">-LN($A194)*F$11</f>
-        <v>4.8346670821989743</v>
+        <v>0.47982872029034407</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27937209186726031</v>
+        <v>0.49443735195211613</v>
       </c>
       <c r="B195">
         <f t="shared" ca="1" si="16"/>
-        <v>5.100842892368636</v>
+        <v>2.8173393025098346</v>
       </c>
       <c r="C195">
         <f t="shared" ca="1" si="17"/>
-        <v>12.75210723092159</v>
+        <v>7.0433482562745864</v>
       </c>
       <c r="D195">
         <f t="shared" ca="1" si="17"/>
-        <v>25.50421446184318</v>
+        <v>14.086696512549173</v>
       </c>
       <c r="E195">
         <f t="shared" ca="1" si="17"/>
-        <v>5.7964123776916319</v>
+        <v>3.201521934670267</v>
       </c>
       <c r="F195">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0905093821182934</v>
+        <v>1.1546472551269813</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56743283487917628</v>
+        <v>0.75833517259037331</v>
       </c>
       <c r="B196">
         <f t="shared" ca="1" si="16"/>
-        <v>2.2665315570664717</v>
+        <v>1.1065192434969533</v>
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6663288926661792</v>
+        <v>2.766298108742383</v>
       </c>
       <c r="D196">
         <f t="shared" ca="1" si="17"/>
-        <v>11.332657785332358</v>
+        <v>5.532596217484766</v>
       </c>
       <c r="E196">
         <f t="shared" ca="1" si="17"/>
-        <v>2.5756040421209909</v>
+        <v>1.257408231246538</v>
       </c>
       <c r="F196">
         <f t="shared" ca="1" si="17"/>
-        <v>0.9289063758469146</v>
+        <v>0.45349149323645627</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9592532635343991</v>
+        <v>0.64450936631187217</v>
       </c>
       <c r="B197">
         <f t="shared" ca="1" si="16"/>
-        <v>0.16640059075166394</v>
+        <v>1.7570636961163804</v>
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="17"/>
-        <v>0.41600147687915984</v>
+        <v>4.3926592402909508</v>
       </c>
       <c r="D197">
         <f t="shared" ca="1" si="17"/>
-        <v>0.83200295375831967</v>
+        <v>8.7853184805819016</v>
       </c>
       <c r="E197">
         <f t="shared" ca="1" si="17"/>
-        <v>0.18909158039961813</v>
+        <v>1.9966632910413415</v>
       </c>
       <c r="F197">
         <f t="shared" ca="1" si="17"/>
-        <v>6.8196963422813089E-2</v>
+        <v>0.72010807217884443</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22267446294243987</v>
+        <v>0.80176782050122897</v>
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="16"/>
-        <v>6.0081775260479962</v>
+        <v>0.88374485460370444</v>
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="17"/>
-        <v>15.020443815119989</v>
+        <v>2.2093621365092613</v>
       </c>
       <c r="D198">
         <f t="shared" ca="1" si="17"/>
-        <v>30.040887630239979</v>
+        <v>4.4187242730185226</v>
       </c>
       <c r="E198">
         <f t="shared" ca="1" si="17"/>
-        <v>6.8274744614181779</v>
+        <v>1.0042555165951188</v>
       </c>
       <c r="F198">
         <f t="shared" ca="1" si="17"/>
-        <v>2.4623678385442607</v>
+        <v>0.36219051418184611</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39165457217938626</v>
+        <v>0.54278873412347384</v>
       </c>
       <c r="B199">
         <f t="shared" ca="1" si="16"/>
-        <v>3.749500084363051</v>
+        <v>2.4441404254080212</v>
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="17"/>
-        <v>9.3737502109076267</v>
+        <v>6.1103510635200529</v>
       </c>
       <c r="D199">
         <f t="shared" ca="1" si="17"/>
-        <v>18.747500421815253</v>
+        <v>12.220702127040106</v>
       </c>
       <c r="E199">
         <f t="shared" ca="1" si="17"/>
-        <v>4.2607955504125581</v>
+        <v>2.7774323016000242</v>
       </c>
       <c r="F199">
         <f t="shared" ca="1" si="17"/>
-        <v>1.5366803624438734</v>
+        <v>1.0016968956590251</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32937761394476106</v>
+        <v>0.11347859028734775</v>
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="16"/>
-        <v>4.4422016945712999</v>
+        <v>8.7045643667337451</v>
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="17"/>
-        <v>11.105504236428249</v>
+        <v>21.761410916834365</v>
       </c>
       <c r="D200">
         <f t="shared" ca="1" si="17"/>
-        <v>22.211008472856498</v>
+        <v>43.522821833668729</v>
       </c>
       <c r="E200">
         <f t="shared" ca="1" si="17"/>
-        <v>5.0479564711037499</v>
+        <v>9.8915504167428931</v>
       </c>
       <c r="F200">
         <f t="shared" ca="1" si="17"/>
-        <v>1.8205744649882376</v>
+        <v>3.5674444125957971</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81367389387948497</v>
+        <v>0.5999009935788876</v>
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="16"/>
-        <v>0.82478246007844724</v>
+        <v>2.0439625923344336</v>
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0619561501961181</v>
+        <v>5.1099064808360843</v>
       </c>
       <c r="D201">
         <f t="shared" ca="1" si="17"/>
-        <v>4.1239123003922362</v>
+        <v>10.219812961672169</v>
       </c>
       <c r="E201">
         <f t="shared" ca="1" si="17"/>
-        <v>0.93725279554369012</v>
+        <v>2.3226847640164019</v>
       </c>
       <c r="F201">
         <f t="shared" ca="1" si="17"/>
-        <v>0.33802559839280627</v>
+        <v>0.83768958702230889</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99718514654513879</v>
+        <v>0.36587948889344535</v>
       </c>
       <c r="B202">
         <f t="shared" ca="1" si="16"/>
-        <v>1.1275290419924552E-2</v>
+        <v>4.0218050604758124</v>
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="17"/>
-        <v>2.8188226049811381E-2</v>
+        <v>10.054512651189532</v>
       </c>
       <c r="D202">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6376452099622762E-2</v>
+        <v>20.109025302379063</v>
       </c>
       <c r="E202">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2812830022641537E-2</v>
+        <v>4.5702330232679689</v>
       </c>
       <c r="F202">
         <f t="shared" ca="1" si="17"/>
-        <v>4.6210206639035051E-3</v>
+        <v>1.648280762490087</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75958194782519672</v>
+        <v>0.14914357642559162</v>
       </c>
       <c r="B203">
         <f t="shared" ca="1" si="16"/>
-        <v>1.0999482627843187</v>
+        <v>7.6113833473181627</v>
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="17"/>
-        <v>2.7498706569607965</v>
+        <v>19.028458368295407</v>
       </c>
       <c r="D203">
         <f t="shared" ca="1" si="17"/>
-        <v>5.4997413139215929</v>
+        <v>38.056916736590814</v>
       </c>
       <c r="E203">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2499412077094532</v>
+        <v>8.6492992583160948</v>
       </c>
       <c r="F203">
         <f t="shared" ca="1" si="17"/>
-        <v>0.45079846835422899</v>
+        <v>3.1194194046385912</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33439970584743195</v>
+        <v>9.7021106041202732E-2</v>
       </c>
       <c r="B204">
         <f t="shared" ca="1" si="16"/>
-        <v>4.3816731096592978</v>
+        <v>9.3313069443758607</v>
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="17"/>
-        <v>10.954182774148244</v>
+        <v>23.328267360939652</v>
       </c>
       <c r="D204">
         <f t="shared" ca="1" si="17"/>
-        <v>21.908365548296487</v>
+        <v>46.656534721879304</v>
       </c>
       <c r="E204">
         <f t="shared" ca="1" si="17"/>
-        <v>4.9791739882492028</v>
+        <v>10.603757891336206</v>
       </c>
       <c r="F204">
         <f t="shared" ca="1" si="17"/>
-        <v>1.7957676678931549</v>
+        <v>3.8243061247442052</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57045691407380794</v>
+        <v>0.5475478047961051</v>
       </c>
       <c r="B205">
         <f t="shared" ca="1" si="16"/>
-        <v>2.2452705425115447</v>
+        <v>2.40922202562842</v>
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6131763562788617</v>
+        <v>6.0230550640710501</v>
       </c>
       <c r="D205">
         <f t="shared" ca="1" si="17"/>
-        <v>11.226352712557723</v>
+        <v>12.0461101281421</v>
       </c>
       <c r="E205">
         <f t="shared" ca="1" si="17"/>
-        <v>2.5514437983085738</v>
+        <v>2.7377523018504775</v>
       </c>
       <c r="F205">
         <f t="shared" ca="1" si="17"/>
-        <v>0.92019284529161671</v>
+        <v>0.9873860760772214</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50827682404662777</v>
+        <v>0.78484741771521394</v>
       </c>
       <c r="B206">
         <f t="shared" ca="1" si="16"/>
-        <v>2.7069162023920956</v>
+        <v>0.96906380971914663</v>
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="17"/>
-        <v>6.7672905059802391</v>
+        <v>2.4226595242978668</v>
       </c>
       <c r="D206">
         <f t="shared" ca="1" si="17"/>
-        <v>13.534581011960478</v>
+        <v>4.8453190485957336</v>
       </c>
       <c r="E206">
         <f t="shared" ca="1" si="17"/>
-        <v>3.0760411390819273</v>
+        <v>1.1012088746808486</v>
       </c>
       <c r="F206">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1093918862262688</v>
+        <v>0.39715729906522401</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29627997802497319</v>
+        <v>0.39009048971258775</v>
       </c>
       <c r="B207">
         <f t="shared" ca="1" si="16"/>
-        <v>4.8658016000273845</v>
+        <v>3.7655061674719552</v>
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="17"/>
-        <v>12.164504000068462</v>
+        <v>9.4137654186798887</v>
       </c>
       <c r="D207">
         <f t="shared" ca="1" si="17"/>
-        <v>24.329008000136923</v>
+        <v>18.827530837359777</v>
       </c>
       <c r="E207">
         <f t="shared" ca="1" si="17"/>
-        <v>5.5293200000311193</v>
+        <v>4.2789842812181309</v>
       </c>
       <c r="F207">
         <f t="shared" ca="1" si="17"/>
-        <v>1.9941809836177806</v>
+        <v>1.5432402325704735</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29563843671168255</v>
+        <v>0.44504779632770597</v>
       </c>
       <c r="B208">
         <f t="shared" ca="1" si="16"/>
-        <v>4.8744722755600138</v>
+        <v>3.2382943804227042</v>
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="16"/>
-        <v>12.186180688900034</v>
+        <v>8.0957359510567599</v>
       </c>
       <c r="D208">
         <f t="shared" ca="1" si="16"/>
-        <v>24.372361377800068</v>
+        <v>16.19147190211352</v>
       </c>
       <c r="E208">
         <f t="shared" ca="1" si="16"/>
-        <v>5.5391730404091071</v>
+        <v>3.6798799777530733</v>
       </c>
       <c r="F208">
         <f t="shared" ca="1" si="16"/>
-        <v>1.9977345391639401</v>
+        <v>1.3271698280420918</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56388612433823659</v>
+        <v>0.42529763642434693</v>
       </c>
       <c r="B209">
         <f t="shared" ref="B209:F222" ca="1" si="18">-LN($A209)*B$11</f>
-        <v>2.2916118202871578</v>
+        <v>3.4198641366783069</v>
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="18"/>
-        <v>5.729029550717895</v>
+        <v>8.5496603416957679</v>
       </c>
       <c r="D209">
         <f t="shared" ca="1" si="18"/>
-        <v>11.45805910143579</v>
+        <v>17.099320683391536</v>
       </c>
       <c r="E209">
         <f t="shared" ca="1" si="18"/>
-        <v>2.604104341235407</v>
+        <v>3.886209246225349</v>
       </c>
       <c r="F209">
         <f t="shared" ca="1" si="18"/>
-        <v>0.93918517224883524</v>
+        <v>1.4015836625730766</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23711827109387407</v>
+        <v>0.96396566187676469</v>
       </c>
       <c r="B210">
         <f t="shared" ca="1" si="18"/>
-        <v>5.756784912687082</v>
+        <v>0.14679842186321099</v>
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="18"/>
-        <v>14.391962281717705</v>
+        <v>0.36699605465802748</v>
       </c>
       <c r="D210">
         <f t="shared" ca="1" si="18"/>
-        <v>28.783924563435409</v>
+        <v>0.73399210931605496</v>
       </c>
       <c r="E210">
         <f t="shared" ca="1" si="18"/>
-        <v>6.5418010371444124</v>
+        <v>0.16681638848092159</v>
       </c>
       <c r="F210">
         <f t="shared" ca="1" si="18"/>
-        <v>2.3593380789701155</v>
+        <v>6.0163287648856964E-2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59807917352521611</v>
+        <v>0.99291946393753194</v>
       </c>
       <c r="B211">
         <f t="shared" ca="1" si="18"/>
-        <v>2.0561285463835319</v>
+        <v>2.8422888060182352E-2</v>
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="18"/>
-        <v>5.1403213659588296</v>
+        <v>7.1057220150455874E-2</v>
       </c>
       <c r="D211">
         <f t="shared" ca="1" si="18"/>
-        <v>10.280642731917659</v>
+        <v>0.14211444030091175</v>
       </c>
       <c r="E211">
         <f t="shared" ca="1" si="18"/>
-        <v>2.3365097117994682</v>
+        <v>3.2298736432025403E-2</v>
       </c>
       <c r="F211">
         <f t="shared" ca="1" si="18"/>
-        <v>0.84267563376374266</v>
+        <v>1.1648724614828833E-2</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85879090633129052</v>
+        <v>0.43430456407055018</v>
       </c>
       <c r="B212">
         <f t="shared" ca="1" si="18"/>
-        <v>0.60891920736815042</v>
+        <v>3.3360369218771786</v>
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="18"/>
-        <v>1.522298018420376</v>
+        <v>8.3400923046929467</v>
       </c>
       <c r="D212">
         <f t="shared" ca="1" si="18"/>
-        <v>3.0445960368407521</v>
+        <v>16.680184609385893</v>
       </c>
       <c r="E212">
         <f t="shared" ca="1" si="18"/>
-        <v>0.69195364473653465</v>
+        <v>3.7909510475877033</v>
       </c>
       <c r="F212">
         <f t="shared" ca="1" si="18"/>
-        <v>0.24955705220006166</v>
+        <v>1.3672282466709749</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16789265391397112</v>
+        <v>0.41847870062057935</v>
       </c>
       <c r="B213">
         <f t="shared" ca="1" si="18"/>
-        <v>7.1377218744067008</v>
+        <v>3.4845171396890469</v>
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="18"/>
-        <v>17.844304686016752</v>
+        <v>8.7112928492226178</v>
       </c>
       <c r="D213">
         <f t="shared" ca="1" si="18"/>
-        <v>35.688609372033504</v>
+        <v>17.422585698445236</v>
       </c>
       <c r="E213">
         <f t="shared" ca="1" si="18"/>
-        <v>8.1110475845530701</v>
+        <v>3.9596785678284627</v>
       </c>
       <c r="F213">
         <f t="shared" ca="1" si="18"/>
-        <v>2.9252958501666808</v>
+        <v>1.4280807949545273</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21878809994757964</v>
+        <v>0.29423960811142891</v>
       </c>
       <c r="B214">
         <f t="shared" ca="1" si="18"/>
-        <v>6.0786063908860735</v>
+        <v>4.893443399976392</v>
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="18"/>
-        <v>15.196515977215183</v>
+        <v>12.23360849994098</v>
       </c>
       <c r="D214">
         <f t="shared" ca="1" si="18"/>
-        <v>30.393031954430366</v>
+        <v>24.467216999881959</v>
       </c>
       <c r="E214">
         <f t="shared" ca="1" si="18"/>
-        <v>6.9075072623705385</v>
+        <v>5.5607311363368099</v>
       </c>
       <c r="F214">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4912321274123252</v>
+        <v>2.0055095901542592</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96958664131080907</v>
+        <v>0.94650328373680925</v>
       </c>
       <c r="B215">
         <f t="shared" ca="1" si="18"/>
-        <v>0.12354176515191509</v>
+        <v>0.21992335596764426</v>
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="18"/>
-        <v>0.30885441287978771</v>
+        <v>0.54980838991911063</v>
       </c>
       <c r="D215">
         <f t="shared" ca="1" si="18"/>
-        <v>0.61770882575957542</v>
+        <v>1.0996167798382213</v>
       </c>
       <c r="E215">
         <f t="shared" ca="1" si="18"/>
-        <v>0.14038836949081263</v>
+        <v>0.24991290450868667</v>
       </c>
       <c r="F215">
         <f t="shared" ca="1" si="18"/>
-        <v>5.0631870963899629E-2</v>
+        <v>9.013252293755912E-2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71745838181410726</v>
+        <v>0.60964018141953602</v>
       </c>
       <c r="B216">
         <f t="shared" ca="1" si="18"/>
-        <v>1.3281613498838085</v>
+        <v>1.979545449519333</v>
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="18"/>
-        <v>3.3204033747095214</v>
+        <v>4.9488636237983323</v>
       </c>
       <c r="D216">
         <f t="shared" ca="1" si="18"/>
-        <v>6.6408067494190428</v>
+        <v>9.8977272475966647</v>
       </c>
       <c r="E216">
         <f t="shared" ca="1" si="18"/>
-        <v>1.5092742612316008</v>
+        <v>2.2494834653628786</v>
       </c>
       <c r="F216">
         <f t="shared" ca="1" si="18"/>
-        <v>0.54432842208352805</v>
+        <v>0.81128911865546438</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84796299070741032</v>
+        <v>0.12940804146066498</v>
       </c>
       <c r="B217">
         <f t="shared" ca="1" si="18"/>
-        <v>0.65967314870533256</v>
+        <v>8.1791390185482022</v>
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="18"/>
-        <v>1.6491828717633314</v>
+        <v>20.447847546370504</v>
       </c>
       <c r="D217">
         <f t="shared" ca="1" si="18"/>
-        <v>3.2983657435266629</v>
+        <v>40.895695092741008</v>
       </c>
       <c r="E217">
         <f t="shared" ca="1" si="18"/>
-        <v>0.74962857807424166</v>
+        <v>9.2944761574411405</v>
       </c>
       <c r="F217">
         <f t="shared" ca="1" si="18"/>
-        <v>0.27035784783005434</v>
+        <v>3.3521061551427058</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23086622475479512</v>
+        <v>0.88224337921331741</v>
       </c>
       <c r="B218">
         <f t="shared" ca="1" si="18"/>
-        <v>5.8636673993080271</v>
+        <v>0.50114928355469412</v>
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="18"/>
-        <v>14.659168498270068</v>
+        <v>1.2528732088867354</v>
       </c>
       <c r="D218">
         <f t="shared" ca="1" si="18"/>
-        <v>29.318336996540136</v>
+        <v>2.5057464177734707</v>
       </c>
       <c r="E218">
         <f t="shared" ca="1" si="18"/>
-        <v>6.6632584083045767</v>
+        <v>0.56948782222124339</v>
       </c>
       <c r="F218">
         <f t="shared" ca="1" si="18"/>
-        <v>2.4031423767655848</v>
+        <v>0.20538905063716972</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219">
         <f t="shared" ca="1" si="3"/>
-        <v>3.728727260908471E-2</v>
+        <v>2.7332966659605495E-2</v>
       </c>
       <c r="B219">
         <f t="shared" ca="1" si="18"/>
-        <v>13.156412909898894</v>
+        <v>14.398646941473825</v>
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="18"/>
-        <v>32.891032274747232</v>
+        <v>35.996617353684563</v>
       </c>
       <c r="D219">
         <f t="shared" ca="1" si="18"/>
-        <v>65.782064549494464</v>
+        <v>71.993234707369126</v>
       </c>
       <c r="E219">
         <f t="shared" ca="1" si="18"/>
-        <v>14.950469215794199</v>
+        <v>16.362098797129349</v>
       </c>
       <c r="F219">
         <f t="shared" ca="1" si="18"/>
-        <v>5.3919725040569233</v>
+        <v>5.9010848120794366</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41661982888079307</v>
+        <v>0.82529547984452867</v>
       </c>
       <c r="B220">
         <f t="shared" ca="1" si="18"/>
-        <v>3.5023246174342049</v>
+        <v>0.76805519753278129</v>
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="18"/>
-        <v>8.7558115435855122</v>
+        <v>1.9201379938319532</v>
       </c>
       <c r="D220">
         <f t="shared" ca="1" si="18"/>
-        <v>17.511623087171024</v>
+        <v>3.8402759876639063</v>
       </c>
       <c r="E220">
         <f t="shared" ca="1" si="18"/>
-        <v>3.979914337993415</v>
+        <v>0.87278999719634243</v>
       </c>
       <c r="F220">
         <f t="shared" ca="1" si="18"/>
-        <v>1.4353789415713956</v>
+        <v>0.31477672030032022</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89451630923604708</v>
+        <v>0.72478042311821844</v>
       </c>
       <c r="B221">
         <f t="shared" ca="1" si="18"/>
-        <v>0.44588857361420225</v>
+        <v>1.2875461386590139</v>
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="18"/>
-        <v>1.1147214340355056</v>
+        <v>3.2188653466475348</v>
       </c>
       <c r="D221">
         <f t="shared" ca="1" si="18"/>
-        <v>2.2294428680710112</v>
+        <v>6.4377306932950695</v>
       </c>
       <c r="E221">
         <f t="shared" ca="1" si="18"/>
-        <v>0.50669156092522993</v>
+        <v>1.463120612112516</v>
       </c>
       <c r="F221">
         <f t="shared" ca="1" si="18"/>
-        <v>0.1827412186943452</v>
+        <v>0.52768284371271068</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47497527707484299</v>
+        <v>0.42015010250708429</v>
       </c>
       <c r="B222">
         <f t="shared" ca="1" si="18"/>
-        <v>2.9779700982621686</v>
+        <v>3.468572978522352</v>
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="18"/>
-        <v>7.4449252456554218</v>
+        <v>8.6714324463058805</v>
       </c>
       <c r="D222">
         <f t="shared" ca="1" si="18"/>
-        <v>14.889850491310844</v>
+        <v>17.342864892611761</v>
       </c>
       <c r="E222">
         <f t="shared" ca="1" si="18"/>
-        <v>3.3840569298433736</v>
+        <v>3.9415602028663095</v>
       </c>
       <c r="F222">
         <f t="shared" ca="1" si="18"/>
-        <v>1.2204795484681019</v>
+        <v>1.4215463026730952</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98837459321960897</v>
+        <v>0.56244578015422964</v>
       </c>
       <c r="B223">
         <f t="shared" ref="B223:F242" ca="1" si="19">-LN($A223)*B$11</f>
-        <v>4.6774040623851369E-2</v>
+        <v>2.3018421615455287</v>
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11693510155962843</v>
+        <v>5.7546054038638221</v>
       </c>
       <c r="D223">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23387020311925685</v>
+        <v>11.509210807727644</v>
       </c>
       <c r="E223">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3152318890740194E-2</v>
+        <v>2.61572972902901</v>
       </c>
       <c r="F223">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9169688780266956E-2</v>
+        <v>0.94337793505964296</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31273209083287168</v>
+        <v>0.95555299698405438</v>
       </c>
       <c r="B224">
         <f t="shared" ca="1" si="19"/>
-        <v>4.6496335791949042</v>
+        <v>0.18186020662067542</v>
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="4"/>
-        <v>11.624083947987261</v>
+        <v>0.45465051655168853</v>
       </c>
       <c r="D224">
         <f t="shared" ca="1" si="4"/>
-        <v>23.248167895974522</v>
+        <v>0.90930103310337707</v>
       </c>
       <c r="E224">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2836745218123919</v>
+        <v>0.20665932570531301</v>
       </c>
       <c r="F224">
         <f t="shared" ca="1" si="4"/>
-        <v>1.905587532456928</v>
+        <v>7.4532871565850589E-2</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24452683411874654</v>
+        <v>0.83410268362129492</v>
       </c>
       <c r="B225">
         <f t="shared" ca="1" si="19"/>
-        <v>5.6337209003699682</v>
+        <v>0.72559504941675002</v>
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="4"/>
-        <v>14.084302250924921</v>
+        <v>1.813987623541875</v>
       </c>
       <c r="D225">
         <f t="shared" ca="1" si="4"/>
-        <v>28.168604501849842</v>
+        <v>3.6279752470837501</v>
       </c>
       <c r="E225">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4019555686022374</v>
+        <v>0.82453982888267052</v>
       </c>
       <c r="F225">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3089020083483476</v>
+        <v>0.29737502025276641</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78715947264152974</v>
+        <v>0.42117872345189367</v>
       </c>
       <c r="B226">
         <f t="shared" ca="1" si="19"/>
-        <v>0.95729766997708254</v>
+        <v>3.4587920564800312</v>
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="4"/>
-        <v>2.3932441749427062</v>
+        <v>8.6469801412000784</v>
       </c>
       <c r="D226">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7864883498854125</v>
+        <v>17.293960282400157</v>
       </c>
       <c r="E226">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0878382613375939</v>
+        <v>3.9304455187273084</v>
       </c>
       <c r="F226">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3923351106463453</v>
+        <v>1.4175377280655865</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92373104088296554</v>
+        <v>0.43184486565068336</v>
       </c>
       <c r="B227">
         <f t="shared" ca="1" si="19"/>
-        <v>0.31733732403331105</v>
+        <v>3.358755450090301</v>
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79334331008327763</v>
+        <v>8.3968886252257526</v>
       </c>
       <c r="D227">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5866866201665553</v>
+        <v>16.793777250451505</v>
       </c>
       <c r="E227">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36061059549239893</v>
+        <v>3.8167675569207971</v>
       </c>
       <c r="F227">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13005628034152092</v>
+        <v>1.3765391188894676</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39627329593662208</v>
+        <v>0.2322118947891475</v>
       </c>
       <c r="B228">
         <f t="shared" ca="1" si="19"/>
-        <v>3.7026046580460883</v>
+        <v>5.8404199381930422</v>
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2565116451152214</v>
+        <v>14.601049845482606</v>
       </c>
       <c r="D228">
         <f t="shared" ca="1" si="4"/>
-        <v>18.513023290230443</v>
+        <v>29.202099690965213</v>
       </c>
       <c r="E228">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2075052932341919</v>
+        <v>6.6368408388557301</v>
       </c>
       <c r="F228">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5174609254287248</v>
+        <v>2.3936147287676404</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15199260923773739</v>
+        <v>0.23952452925343792</v>
       </c>
       <c r="B229">
         <f t="shared" ca="1" si="19"/>
-        <v>7.5356935310158262</v>
+        <v>5.7163977951234521</v>
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="4"/>
-        <v>18.839233827539566</v>
+        <v>14.29099448780863</v>
       </c>
       <c r="D229">
         <f t="shared" ca="1" si="4"/>
-        <v>37.678467655079132</v>
+        <v>28.581988975617261</v>
       </c>
       <c r="E229">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5632881034270767</v>
+        <v>6.4959065853675595</v>
       </c>
       <c r="F229">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0883989881212401</v>
+        <v>2.3427859816079724</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76481395743775549</v>
+        <v>7.2338480143471107E-2</v>
       </c>
       <c r="B230">
         <f t="shared" ca="1" si="19"/>
-        <v>1.0724906704944426</v>
+        <v>10.505596250335651</v>
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6812266762361063</v>
+        <v>26.263990625839128</v>
       </c>
       <c r="D230">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3624533524722127</v>
+        <v>52.527981251678256</v>
       </c>
       <c r="E230">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2187393982891395</v>
+        <v>11.938177557199605</v>
       </c>
       <c r="F230">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43954535676001744</v>
+        <v>4.3055722337441198</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67068546739938328</v>
+        <v>0.76219756222792534</v>
       </c>
       <c r="B231">
         <f t="shared" ca="1" si="19"/>
-        <v>1.5978200156874658</v>
+        <v>1.086197955535938</v>
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="4"/>
-        <v>3.9945500392186646</v>
+        <v>2.7154948888398449</v>
       </c>
       <c r="D231">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9891000784373292</v>
+        <v>5.4309897776796898</v>
       </c>
       <c r="E231">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8157045632812112</v>
+        <v>1.2343158585635661</v>
       </c>
       <c r="F231">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65484426872437129</v>
+        <v>0.44516309653112213</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78855014643151622</v>
+        <v>0.32472730831150942</v>
       </c>
       <c r="B232">
         <f t="shared" ca="1" si="19"/>
-        <v>0.95023710940560513</v>
+        <v>4.499078000808832</v>
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="4"/>
-        <v>2.375592773514013</v>
+        <v>11.247695002022081</v>
       </c>
       <c r="D232">
         <f t="shared" ca="1" si="4"/>
-        <v>4.751185547028026</v>
+        <v>22.495390004044161</v>
       </c>
       <c r="E232">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0798148970518242</v>
+        <v>5.112588637282764</v>
       </c>
       <c r="F232">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38944143828098571</v>
+        <v>1.8438844265609968</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71362025961779574</v>
+        <v>0.39828693395736459</v>
       </c>
       <c r="B233">
         <f t="shared" ca="1" si="19"/>
-        <v>1.3496172295973643</v>
+        <v>3.682330375433768</v>
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3740430739934109</v>
+        <v>9.2058259385844199</v>
       </c>
       <c r="D233">
         <f t="shared" ca="1" si="4"/>
-        <v>6.7480861479868217</v>
+        <v>18.41165187716884</v>
       </c>
       <c r="E233">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5336559427242777</v>
+        <v>4.1844663357201917</v>
       </c>
       <c r="F233">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55312181540875582</v>
+        <v>1.5091517932105607</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57064274483146549</v>
+        <v>0.74990759923963279</v>
       </c>
       <c r="B234">
         <f t="shared" ca="1" si="19"/>
-        <v>2.2439677237237197</v>
+        <v>1.1512211242218886</v>
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6099193093092996</v>
+        <v>2.8780528105547214</v>
       </c>
       <c r="D234">
         <f t="shared" ca="1" si="4"/>
-        <v>11.219838618618599</v>
+        <v>5.7561056211094428</v>
       </c>
       <c r="E234">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5499633224133182</v>
+        <v>1.3082058229794189</v>
       </c>
       <c r="F234">
         <f t="shared" ca="1" si="4"/>
-        <v>0.91965890316545895</v>
+        <v>0.47181193615651174</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60785019423740994</v>
+        <v>0.97454919596448508</v>
       </c>
       <c r="B235">
         <f t="shared" ca="1" si="19"/>
-        <v>1.9913072737285</v>
+        <v>0.10312111208168868</v>
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9782681843212497</v>
+        <v>0.2578027802042217</v>
       </c>
       <c r="D235">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9565363686424995</v>
+        <v>0.51560556040844341</v>
       </c>
       <c r="E235">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2628491746914774</v>
+        <v>0.11718308191100987</v>
       </c>
       <c r="F235">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81610953841331968</v>
+        <v>4.22627508531511E-2</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40358391252262127</v>
+        <v>0.89899524002630571</v>
       </c>
       <c r="B236">
         <f t="shared" ca="1" si="19"/>
-        <v>3.6294834050038971</v>
+        <v>0.42591015706896701</v>
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="4"/>
-        <v>9.073708512509743</v>
+        <v>1.0647753926724175</v>
       </c>
       <c r="D236">
         <f t="shared" ca="1" si="4"/>
-        <v>18.147417025019486</v>
+        <v>2.129550785344835</v>
       </c>
       <c r="E236">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1244129602317017</v>
+        <v>0.4839888148510989</v>
       </c>
       <c r="F236">
         <f t="shared" ca="1" si="4"/>
-        <v>1.487493198772089</v>
+        <v>0.17455334306105205</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3313893373592145</v>
+        <v>0.56393057696826387</v>
       </c>
       <c r="B237">
         <f t="shared" ca="1" si="19"/>
-        <v>4.4178453961677739</v>
+        <v>2.2912965021685396</v>
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="4"/>
-        <v>11.044613490419435</v>
+        <v>5.7282412554213487</v>
       </c>
       <c r="D237">
         <f t="shared" ca="1" si="4"/>
-        <v>22.08922698083887</v>
+        <v>11.456482510842697</v>
       </c>
       <c r="E237">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0202788592815617</v>
+        <v>2.6037460251915228</v>
       </c>
       <c r="F237">
         <f t="shared" ca="1" si="4"/>
-        <v>1.810592375478596</v>
+        <v>0.93905594351169663</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70226649707656585</v>
+        <v>0.82403229719742876</v>
       </c>
       <c r="B238">
         <f t="shared" ca="1" si="19"/>
-        <v>1.4137692861225915</v>
+        <v>0.77418221685138555</v>
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5344232153064787</v>
+        <v>1.9354555421284638</v>
       </c>
       <c r="D238">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0688464306129575</v>
+        <v>3.8709110842569276</v>
       </c>
       <c r="E238">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6065560069574905</v>
+        <v>0.87975251914930186</v>
       </c>
       <c r="F238">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57941364185352107</v>
+        <v>0.31728779379155148</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5203073711266113</v>
+        <v>0.54572483179254316</v>
       </c>
       <c r="B239">
         <f t="shared" ca="1" si="19"/>
-        <v>2.6133421748642305</v>
+        <v>2.4225616053970658</v>
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5333554371605764</v>
+        <v>6.0564040134926644</v>
       </c>
       <c r="D239">
         <f t="shared" ca="1" si="4"/>
-        <v>13.066710874321153</v>
+        <v>12.112808026985329</v>
       </c>
       <c r="E239">
         <f t="shared" ca="1" si="4"/>
-        <v>2.9697070168911712</v>
+        <v>2.7529109152239388</v>
       </c>
       <c r="F239">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0710418749443569</v>
+        <v>0.99285311696601064</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89449992163824044</v>
+        <v>0.28209780993701916</v>
       </c>
       <c r="B240">
         <f t="shared" ca="1" si="19"/>
-        <v>0.44596185454938569</v>
+        <v>5.0620056977284662</v>
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1149046363734643</v>
+        <v>12.655014244321166</v>
       </c>
       <c r="D240">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2298092727469285</v>
+        <v>25.310028488642331</v>
       </c>
       <c r="E240">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50677483471521101</v>
+        <v>5.7522792019641669</v>
       </c>
       <c r="F240">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18277125186450233</v>
+        <v>2.0745924990690434</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80944425941785492</v>
+        <v>0.27960405310806913</v>
       </c>
       <c r="B241">
         <f t="shared" ca="1" si="19"/>
-        <v>0.84562946509498105</v>
+        <v>5.0975230905315252</v>
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1140736627374528</v>
+        <v>12.743807726328813</v>
       </c>
       <c r="D241">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2281473254749056</v>
+        <v>25.487615452657625</v>
       </c>
       <c r="E241">
         <f t="shared" ca="1" si="4"/>
-        <v>0.96094257397156946</v>
+        <v>5.7926398756040065</v>
       </c>
       <c r="F241">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34656945290777913</v>
+        <v>2.0891488075948876</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3197060306072389</v>
+        <v>0.19906270468069742</v>
       </c>
       <c r="B242">
         <f t="shared" ca="1" si="19"/>
-        <v>4.5614134390490255</v>
+        <v>6.4565416199715981</v>
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="19"/>
-        <v>11.403533597622564</v>
+        <v>16.141354049928996</v>
       </c>
       <c r="D242">
         <f t="shared" ca="1" si="19"/>
-        <v>22.807067195245128</v>
+        <v>32.282708099857992</v>
       </c>
       <c r="E242">
         <f t="shared" ca="1" si="19"/>
-        <v>5.1834243625557113</v>
+        <v>7.3369791136040892</v>
       </c>
       <c r="F242">
         <f t="shared" ca="1" si="19"/>
-        <v>1.8694317373151745</v>
+        <v>2.6461236147424585</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28939619701022279</v>
+        <v>0.80320439627183893</v>
       </c>
       <c r="B243">
         <f t="shared" ref="B243:F256" ca="1" si="20">-LN($A243)*B$11</f>
-        <v>4.959834423268453</v>
+        <v>0.87658422645454781</v>
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="20"/>
-        <v>12.399586058171133</v>
+        <v>2.1914605661363695</v>
       </c>
       <c r="D243">
         <f t="shared" ca="1" si="20"/>
-        <v>24.799172116342266</v>
+        <v>4.3829211322727391</v>
       </c>
       <c r="E243">
         <f t="shared" ca="1" si="20"/>
-        <v>5.6361754809868794</v>
+        <v>0.99611843915289533</v>
       </c>
       <c r="F243">
         <f t="shared" ca="1" si="20"/>
-        <v>2.0327190259296941</v>
+        <v>0.35925583051415894</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79966316665002612</v>
+        <v>0.66157114672569606</v>
       </c>
       <c r="B244">
         <f t="shared" ca="1" si="20"/>
-        <v>0.89425872665846584</v>
+        <v>1.6525509903257336</v>
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="20"/>
-        <v>2.2356468166461645</v>
+        <v>4.1313774758143342</v>
       </c>
       <c r="D244">
         <f t="shared" ca="1" si="20"/>
-        <v>4.471293633292329</v>
+        <v>8.2627549516286685</v>
       </c>
       <c r="E244">
         <f t="shared" ca="1" si="20"/>
-        <v>1.0162030984755295</v>
+        <v>1.8778988526428793</v>
       </c>
       <c r="F244">
         <f t="shared" ca="1" si="20"/>
-        <v>0.36649947813871553</v>
+        <v>0.67727499603513674</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93934409307666988</v>
+        <v>0.26084516250174483</v>
       </c>
       <c r="B245">
         <f t="shared" ca="1" si="20"/>
-        <v>0.25029368239155614</v>
+        <v>5.3753131792795799</v>
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="20"/>
-        <v>0.6257342059788904</v>
+        <v>13.43828294819895</v>
       </c>
       <c r="D245">
         <f t="shared" ca="1" si="20"/>
-        <v>1.2514684119577808</v>
+        <v>26.876565896397899</v>
       </c>
       <c r="E245">
         <f t="shared" ca="1" si="20"/>
-        <v>0.28442463908131382</v>
+        <v>6.1083104309995235</v>
       </c>
       <c r="F245">
         <f t="shared" ca="1" si="20"/>
-        <v>0.10257937802932629</v>
+        <v>2.2029972046227786</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20297139762693628</v>
+        <v>6.1955583764055855E-2</v>
       </c>
       <c r="B246">
         <f t="shared" ca="1" si="20"/>
-        <v>6.378760833027747</v>
+        <v>11.125350166279812</v>
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="20"/>
-        <v>15.946902082569368</v>
+        <v>27.813375415699532</v>
       </c>
       <c r="D246">
         <f t="shared" ca="1" si="20"/>
-        <v>31.893804165138736</v>
+        <v>55.626750831399065</v>
       </c>
       <c r="E246">
         <f t="shared" ca="1" si="20"/>
-        <v>7.2485918557133493</v>
+        <v>12.642443370772515</v>
       </c>
       <c r="F246">
         <f t="shared" ca="1" si="20"/>
-        <v>2.6142462430441586</v>
+        <v>4.5595697402786115</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66585853250139815</v>
+        <v>0.3658775797667424</v>
       </c>
       <c r="B247">
         <f t="shared" ca="1" si="20"/>
-        <v>1.626712178665157</v>
+        <v>4.0218259321752852</v>
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="20"/>
-        <v>4.066780446662893</v>
+        <v>10.054564830438213</v>
       </c>
       <c r="D247">
         <f t="shared" ca="1" si="20"/>
-        <v>8.1335608933257859</v>
+        <v>20.109129660876427</v>
       </c>
       <c r="E247">
         <f t="shared" ca="1" si="20"/>
-        <v>1.8485365666649514</v>
+        <v>4.5702567411082793</v>
       </c>
       <c r="F247">
         <f t="shared" ca="1" si="20"/>
-        <v>0.66668531912506435</v>
+        <v>1.6482893164652808</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73417239469536422</v>
+        <v>0.61004583825558911</v>
       </c>
       <c r="B248">
         <f t="shared" ca="1" si="20"/>
-        <v>1.2360456311525074</v>
+        <v>1.9768847198268265</v>
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="20"/>
-        <v>3.0901140778812684</v>
+        <v>4.9422117995670662</v>
       </c>
       <c r="D248">
         <f t="shared" ca="1" si="20"/>
-        <v>6.1802281557625367</v>
+        <v>9.8844235991341325</v>
       </c>
       <c r="E248">
         <f t="shared" ca="1" si="20"/>
-        <v>1.4045973081278496</v>
+        <v>2.2464599088941211</v>
       </c>
       <c r="F248">
         <f t="shared" ca="1" si="20"/>
-        <v>0.50657607834119156</v>
+        <v>0.81019865566673221</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71371938802649548</v>
+        <v>0.27122571165655207</v>
       </c>
       <c r="B249">
         <f t="shared" ca="1" si="20"/>
-        <v>1.3490616314451083</v>
+        <v>5.2192156816664372</v>
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="20"/>
-        <v>3.3726540786127708</v>
+        <v>13.048039204166093</v>
       </c>
       <c r="D249">
         <f t="shared" ca="1" si="20"/>
-        <v>6.7453081572255416</v>
+        <v>26.096078408332186</v>
       </c>
       <c r="E249">
         <f t="shared" ca="1" si="20"/>
-        <v>1.5330245811876231</v>
+        <v>5.9309269109845886</v>
       </c>
       <c r="F249">
         <f t="shared" ca="1" si="20"/>
-        <v>0.55289411124799526</v>
+        <v>2.1390228203550974</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98763981101223641</v>
+        <v>0.58533499444384307</v>
       </c>
       <c r="B250">
         <f t="shared" ca="1" si="20"/>
-        <v>4.9748845826346907E-2</v>
+        <v>2.1422838222843881</v>
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="20"/>
-        <v>0.12437211456586728</v>
+        <v>5.3557095557109697</v>
       </c>
       <c r="D250">
         <f t="shared" ca="1" si="20"/>
-        <v>0.24874422913173455</v>
+        <v>10.711419111421939</v>
       </c>
       <c r="E250">
         <f t="shared" ca="1" si="20"/>
-        <v>5.6532779348121488E-2</v>
+        <v>2.4344134344140778</v>
       </c>
       <c r="F250">
         <f t="shared" ca="1" si="20"/>
-        <v>2.0388871240306111E-2</v>
+        <v>0.87798517306737223</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95558752726337903</v>
+        <v>0.73724466342243566</v>
       </c>
       <c r="B251">
         <f t="shared" ca="1" si="20"/>
-        <v>0.18171566348995191</v>
+        <v>1.2193418792162023</v>
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="20"/>
-        <v>0.45428915872487979</v>
+        <v>3.0483546980405056</v>
       </c>
       <c r="D251">
         <f t="shared" ca="1" si="20"/>
-        <v>0.90857831744975959</v>
+        <v>6.0967093960810113</v>
       </c>
       <c r="E251">
         <f t="shared" ca="1" si="20"/>
-        <v>0.20649507214767265</v>
+        <v>1.3856157718365936</v>
       </c>
       <c r="F251">
         <f t="shared" ca="1" si="20"/>
-        <v>7.4473632577849141E-2</v>
+        <v>0.49973027836729605</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252">
         <f t="shared" ca="1" si="3"/>
-        <v>6.5481579993653782E-2</v>
+        <v>0.3916839522883292</v>
       </c>
       <c r="B252">
         <f t="shared" ca="1" si="20"/>
-        <v>10.903945589448153</v>
+        <v>3.7492000341748986</v>
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="20"/>
-        <v>27.259863973620384</v>
+        <v>9.3730000854372459</v>
       </c>
       <c r="D252">
         <f t="shared" ca="1" si="20"/>
-        <v>54.519727947240767</v>
+        <v>18.746000170874492</v>
       </c>
       <c r="E252">
         <f t="shared" ca="1" si="20"/>
-        <v>12.390847260736539</v>
+        <v>4.2604545842896577</v>
       </c>
       <c r="F252">
         <f t="shared" ca="1" si="20"/>
-        <v>4.4688301596098992</v>
+        <v>1.5365573910552863</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66008721493703981</v>
+        <v>0.6698383885216822</v>
       </c>
       <c r="B253">
         <f t="shared" ca="1" si="20"/>
-        <v>1.661533235391579</v>
+        <v>1.6028752274195395</v>
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="20"/>
-        <v>4.1538330884789474</v>
+        <v>4.0071880685488486</v>
       </c>
       <c r="D253">
         <f t="shared" ca="1" si="20"/>
-        <v>8.3076661769578948</v>
+        <v>8.0143761370976971</v>
       </c>
       <c r="E253">
         <f t="shared" ca="1" si="20"/>
-        <v>1.8881059493086128</v>
+        <v>1.8214491220676587</v>
       </c>
       <c r="F253">
         <f t="shared" ca="1" si="20"/>
-        <v>0.6809562440129423</v>
+        <v>0.65691607681128672</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46523315749856287</v>
+        <v>0.82436209686272521</v>
       </c>
       <c r="B254">
         <f t="shared" ca="1" si="20"/>
-        <v>3.0608663403414349</v>
+        <v>0.77258163062815932</v>
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="20"/>
-        <v>7.6521658508535868</v>
+        <v>1.9314540765703982</v>
       </c>
       <c r="D254">
         <f t="shared" ca="1" si="20"/>
-        <v>15.304331701707174</v>
+        <v>3.8629081531407965</v>
       </c>
       <c r="E254">
         <f t="shared" ca="1" si="20"/>
-        <v>3.478257204933449</v>
+        <v>0.87793367116836296</v>
       </c>
       <c r="F254">
         <f t="shared" ca="1" si="20"/>
-        <v>1.2544534181727192</v>
+        <v>0.31663181583121286</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50108044010888397</v>
+        <v>0.51300360540323076</v>
       </c>
       <c r="B255">
         <f t="shared" ca="1" si="20"/>
-        <v>2.7639545267437446</v>
+        <v>2.6698896230383644</v>
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="20"/>
-        <v>6.9098863168593621</v>
+        <v>6.6747240575959115</v>
       </c>
       <c r="D255">
         <f t="shared" ca="1" si="20"/>
-        <v>13.819772633718724</v>
+        <v>13.349448115191823</v>
       </c>
       <c r="E255">
         <f t="shared" ca="1" si="20"/>
-        <v>3.1408574167542556</v>
+        <v>3.0339654807254144</v>
       </c>
       <c r="F255">
         <f t="shared" ca="1" si="20"/>
-        <v>1.1327682486654691</v>
+        <v>1.0942170586222806</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88839112889813798</v>
+        <v>0.5217549380684422</v>
       </c>
       <c r="B256">
         <f t="shared" ca="1" si="20"/>
-        <v>0.47337268997331833</v>
+        <v>2.602229074542437</v>
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="20"/>
-        <v>1.1834317249332957</v>
+        <v>6.5055726863560928</v>
       </c>
       <c r="D256">
         <f t="shared" ca="1" si="20"/>
-        <v>2.3668634498665915</v>
+        <v>13.011145372712186</v>
       </c>
       <c r="E256">
         <f t="shared" ca="1" si="20"/>
-        <v>0.53792351133331628</v>
+        <v>2.9570784937982242</v>
       </c>
       <c r="F256">
         <f t="shared" ca="1" si="20"/>
-        <v>0.19400520080873704</v>
+        <v>1.0664873256321463</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16964516299753274</v>
+        <v>0.56375186005907296</v>
       </c>
       <c r="B257">
         <f t="shared" ref="B257:B272" ca="1" si="21">-LN($A257)*B$11</f>
-        <v>7.0961851992580849</v>
+        <v>2.2925643549243793</v>
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="4"/>
-        <v>17.740462998145212</v>
+        <v>5.7314108873109486</v>
       </c>
       <c r="D257">
         <f t="shared" ca="1" si="4"/>
-        <v>35.480925996290424</v>
+        <v>11.462821774621897</v>
       </c>
       <c r="E257">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0638468173387334</v>
+        <v>2.6051867669595223</v>
       </c>
       <c r="F257">
         <f t="shared" ca="1" si="4"/>
-        <v>2.9082726226467561</v>
+        <v>0.93957555529687675</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89132802545520207</v>
+        <v>0.53230536398710171</v>
       </c>
       <c r="B258">
         <f t="shared" ca="1" si="21"/>
-        <v>0.4601710599710942</v>
+        <v>2.522151847416779</v>
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1504276499277355</v>
+        <v>6.3053796185419477</v>
       </c>
       <c r="D258">
         <f t="shared" ca="1" si="4"/>
-        <v>2.300855299855471</v>
+        <v>12.610759237083895</v>
       </c>
       <c r="E258">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52292165905806165</v>
+        <v>2.8660816447917945</v>
       </c>
       <c r="F258">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18859469670946485</v>
+        <v>1.0336687899249095</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5183089574246309E-2</v>
+        <v>0.50695864573100979</v>
       </c>
       <c r="B259">
         <f t="shared" ca="1" si="21"/>
-        <v>14.726330233438778</v>
+        <v>2.7173033812927749</v>
       </c>
       <c r="C259">
         <f t="shared" ca="1" si="4"/>
-        <v>36.815825583596947</v>
+        <v>6.7932584532319371</v>
       </c>
       <c r="D259">
         <f t="shared" ca="1" si="4"/>
-        <v>73.631651167193894</v>
+        <v>13.586516906463874</v>
       </c>
       <c r="E259">
         <f t="shared" ca="1" si="4"/>
-        <v>16.73446617436225</v>
+        <v>3.0878447514690626</v>
       </c>
       <c r="F259">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0353812432126146</v>
+        <v>1.1136489267593339</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20359319820818356</v>
+        <v>0.16814757392158008</v>
       </c>
       <c r="B260">
         <f t="shared" ca="1" si="21"/>
-        <v>6.3665256099428182</v>
+        <v>7.1316530758428902</v>
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="4"/>
-        <v>15.916314024857046</v>
+        <v>17.829132689607224</v>
       </c>
       <c r="D260">
         <f t="shared" ca="1" si="4"/>
-        <v>31.832628049714092</v>
+        <v>35.658265379214448</v>
       </c>
       <c r="E260">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2346881931168392</v>
+        <v>8.1041512225487402</v>
       </c>
       <c r="F260">
         <f t="shared" ca="1" si="4"/>
-        <v>2.609231807353614</v>
+        <v>2.9228086376405287</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91132085299499643</v>
+        <v>0.73039376295647018</v>
       </c>
       <c r="B261">
         <f t="shared" ca="1" si="21"/>
-        <v>0.37144098020920086</v>
+        <v>1.2566859558162455</v>
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92860245052300217</v>
+        <v>3.141714889540614</v>
       </c>
       <c r="D261">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8572049010460043</v>
+        <v>6.2834297790812279</v>
       </c>
       <c r="E261">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42209202296500103</v>
+        <v>1.4280522225184609</v>
       </c>
       <c r="F261">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15222990992180363</v>
+        <v>0.51503522779354327</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17638222595689668</v>
+        <v>0.69401409185287277</v>
       </c>
       <c r="B262">
         <f t="shared" ca="1" si="21"/>
-        <v>6.9404076014704081</v>
+        <v>1.4610520536719047</v>
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="4"/>
-        <v>17.351019003676022</v>
+        <v>3.6526301341797618</v>
       </c>
       <c r="D262">
         <f t="shared" ca="1" si="4"/>
-        <v>34.702038007352044</v>
+        <v>7.3052602683595236</v>
       </c>
       <c r="E262">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8868268198527369</v>
+        <v>1.6602864246271647</v>
       </c>
       <c r="F262">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8444293448649214</v>
+        <v>0.59879182527537078</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11485192933614896</v>
+        <v>0.90373240670401178</v>
       </c>
       <c r="B263">
         <f t="shared" ca="1" si="21"/>
-        <v>8.6564462049625579</v>
+        <v>0.40488789077129933</v>
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="4"/>
-        <v>21.641115512406394</v>
+        <v>1.0122197269282482</v>
       </c>
       <c r="D263">
         <f t="shared" ca="1" si="4"/>
-        <v>43.282231024812788</v>
+        <v>2.0244394538564965</v>
       </c>
       <c r="E263">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8368706874574539</v>
+        <v>0.46009987587647655</v>
       </c>
       <c r="F263">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5477238544928515</v>
+        <v>0.16593766015217187</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56601501525886566</v>
+        <v>0.32300193651716402</v>
       </c>
       <c r="B264">
         <f t="shared" ca="1" si="21"/>
-        <v>2.2765386896196937</v>
+        <v>4.5203878414731058</v>
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6913467240492341</v>
+        <v>11.300969603682764</v>
       </c>
       <c r="D264">
         <f t="shared" ca="1" si="4"/>
-        <v>11.382693448098468</v>
+        <v>22.601939207365529</v>
       </c>
       <c r="E264">
         <f t="shared" ca="1" si="4"/>
-        <v>2.586975783658743</v>
+        <v>5.1368043653103479</v>
       </c>
       <c r="F264">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93300765968020238</v>
+        <v>1.8526179678168466</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69829393616477142</v>
+        <v>0.19586047499831549</v>
       </c>
       <c r="B265">
         <f t="shared" ca="1" si="21"/>
-        <v>1.4364606115144722</v>
+        <v>6.5214109419974209</v>
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5911515287861806</v>
+        <v>16.303527354993552</v>
       </c>
       <c r="D265">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1823030575723612</v>
+        <v>32.607054709987104</v>
       </c>
       <c r="E265">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6323416039937186</v>
+        <v>7.4106942522697974</v>
       </c>
       <c r="F265">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58871336537478369</v>
+        <v>2.6727094024579596</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18800691543576065</v>
+        <v>0.13863362665083256</v>
       </c>
       <c r="B266">
         <f t="shared" ca="1" si="21"/>
-        <v>6.6851061303837671</v>
+        <v>7.9036824204983649</v>
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="4"/>
-        <v>16.712765325959417</v>
+        <v>19.759206051245911</v>
       </c>
       <c r="D266">
         <f t="shared" ca="1" si="4"/>
-        <v>33.425530651918834</v>
+        <v>39.518412102491823</v>
       </c>
       <c r="E266">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5967115117997359</v>
+        <v>8.9814572960208707</v>
       </c>
       <c r="F266">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7397975944195769</v>
+        <v>3.2392141067616249</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51715523382071271</v>
+        <v>0.50889817493332112</v>
       </c>
       <c r="B267">
         <f t="shared" ca="1" si="21"/>
-        <v>2.6376487628061418</v>
+        <v>2.7020293267641891</v>
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="4"/>
-        <v>6.5941219070153547</v>
+        <v>6.7550733169104724</v>
       </c>
       <c r="D267">
         <f t="shared" ca="1" si="4"/>
-        <v>13.188243814030709</v>
+        <v>13.510146633820945</v>
       </c>
       <c r="E267">
         <f t="shared" ca="1" si="4"/>
-        <v>2.997328139552434</v>
+        <v>3.0704878713229422</v>
       </c>
       <c r="F267">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0810035913139926</v>
+        <v>1.1073890683459791</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65165723564812283</v>
+        <v>0.80210701709816923</v>
       </c>
       <c r="B268">
         <f t="shared" ca="1" si="21"/>
-        <v>1.7129462699468854</v>
+        <v>0.88205296895754048</v>
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2823656748672132</v>
+        <v>2.2051324223938513</v>
       </c>
       <c r="D268">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5647313497344264</v>
+        <v>4.4102648447877026</v>
       </c>
       <c r="E268">
         <f t="shared" ca="1" si="4"/>
-        <v>1.94652985221237</v>
+        <v>1.0023329192699324</v>
       </c>
       <c r="F268">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70202715981429731</v>
+        <v>0.36149711842522153</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60807679482175059</v>
+        <v>0.94320237049675215</v>
       </c>
       <c r="B269">
         <f t="shared" ca="1" si="21"/>
-        <v>1.9898163908777835</v>
+        <v>0.23389766605128379</v>
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9745409771944589</v>
+        <v>0.58474416512820948</v>
       </c>
       <c r="D269">
         <f t="shared" ca="1" si="4"/>
-        <v>9.9490819543889177</v>
+        <v>1.169488330256419</v>
       </c>
       <c r="E269">
         <f t="shared" ca="1" si="4"/>
-        <v>2.261154989633845</v>
+        <v>0.26579280233100433</v>
       </c>
       <c r="F269">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81549852085155061</v>
+        <v>9.5859699201345822E-2</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18299784102993899</v>
+        <v>0.49962864207661506</v>
       </c>
       <c r="B270">
         <f t="shared" ca="1" si="21"/>
-        <v>6.7931236954436622</v>
+        <v>2.7755606894270928</v>
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="4"/>
-        <v>16.982809238609157</v>
+        <v>6.9389017235677315</v>
       </c>
       <c r="D270">
         <f t="shared" ca="1" si="4"/>
-        <v>33.965618477218314</v>
+        <v>13.877803447135463</v>
       </c>
       <c r="E270">
         <f t="shared" ca="1" si="4"/>
-        <v>7.7194587448223437</v>
+        <v>3.1540462379853329</v>
       </c>
       <c r="F270">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7840670882965828</v>
+        <v>1.1375248727160217</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45168998159997276</v>
+        <v>0.57133968401465074</v>
       </c>
       <c r="B271">
         <f t="shared" ca="1" si="21"/>
-        <v>3.1790368635606518</v>
+        <v>2.2390854120376105</v>
       </c>
       <c r="C271">
         <f t="shared" ca="1" si="4"/>
-        <v>7.9475921589016298</v>
+        <v>5.5977135300940262</v>
       </c>
       <c r="D271">
         <f t="shared" ca="1" si="4"/>
-        <v>15.89518431780326</v>
+        <v>11.195427060188052</v>
       </c>
       <c r="E271">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6125418904098319</v>
+        <v>2.5444152409518304</v>
       </c>
       <c r="F271">
         <f t="shared" ca="1" si="4"/>
-        <v>1.302883960475677</v>
+        <v>0.91765795575311904</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84373207601634015</v>
+        <v>0.2116519855092247</v>
       </c>
       <c r="B272">
         <f t="shared" ca="1" si="21"/>
-        <v>0.6796811210437258</v>
+        <v>6.2112477238479826</v>
       </c>
       <c r="C272">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6992028026093144</v>
+        <v>15.528119309619957</v>
       </c>
       <c r="D272">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3984056052186289</v>
+        <v>31.056238619239913</v>
       </c>
       <c r="E272">
         <f t="shared" ca="1" si="4"/>
-        <v>0.77236491027696119</v>
+        <v>7.0582360498272534</v>
       </c>
       <c r="F272">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27855783649333027</v>
+        <v>2.5455933294458948</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4829708455226305E-3</v>
+        <v>7.2794626622412761E-2</v>
       </c>
       <c r="B273">
         <f t="shared" ref="B273:F288" ca="1" si="22">-LN($A273)*B$11</f>
-        <v>19.078778219898336</v>
+        <v>10.480452546541166</v>
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="4"/>
-        <v>47.696945549745841</v>
+        <v>26.201131366352914</v>
       </c>
       <c r="D273">
         <f t="shared" ca="1" si="4"/>
-        <v>95.393891099491682</v>
+        <v>52.402262732705829</v>
       </c>
       <c r="E273">
         <f t="shared" ca="1" si="4"/>
-        <v>21.68042979533902</v>
+        <v>11.909605166524052</v>
       </c>
       <c r="F273">
         <f t="shared" ca="1" si="4"/>
-        <v>7.8191714015976785</v>
+        <v>4.295267437107035</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65613888700161871</v>
+        <v>0.42168738809298101</v>
       </c>
       <c r="B274">
         <f t="shared" ca="1" si="22"/>
-        <v>1.6855311778274655</v>
+        <v>3.4539641038942257</v>
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2138279445686635</v>
+        <v>8.6349102597355643</v>
       </c>
       <c r="D274">
         <f t="shared" ca="1" si="4"/>
-        <v>8.427655889137327</v>
+        <v>17.269820519471129</v>
       </c>
       <c r="E274">
         <f t="shared" ca="1" si="4"/>
-        <v>1.915376338440302</v>
+        <v>3.9249592089707113</v>
       </c>
       <c r="F274">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69079146632273181</v>
+        <v>1.4155590589730433</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66032146074230325</v>
+        <v>0.36433335032272529</v>
       </c>
       <c r="B275">
         <f t="shared" ca="1" si="22"/>
-        <v>1.6601140032278685</v>
+        <v>4.0387441313690333</v>
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1502850080696714</v>
+        <v>10.096860328422583</v>
       </c>
       <c r="D275">
         <f t="shared" ca="1" si="4"/>
-        <v>8.3005700161393428</v>
+        <v>20.193720656845166</v>
       </c>
       <c r="E275">
         <f t="shared" ca="1" si="4"/>
-        <v>1.8864931854862144</v>
+        <v>4.5894819674648106</v>
       </c>
       <c r="F275">
         <f t="shared" ca="1" si="4"/>
-        <v>0.68037459148683133</v>
+        <v>1.6552230046594398</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43592135784134811</v>
+        <v>0.21566831294162681</v>
       </c>
       <c r="B276">
         <f t="shared" ca="1" si="22"/>
-        <v>3.3211736953023521</v>
+        <v>6.1360545590206899</v>
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="22"/>
-        <v>8.3029342382558795</v>
+        <v>15.340136397551724</v>
       </c>
       <c r="D276">
         <f t="shared" ca="1" si="22"/>
-        <v>16.605868476511759</v>
+        <v>30.680272795103448</v>
       </c>
       <c r="E276">
         <f t="shared" ca="1" si="22"/>
-        <v>3.774061017389037</v>
+        <v>6.9727892716144213</v>
       </c>
       <c r="F276">
         <f t="shared" ca="1" si="22"/>
-        <v>1.3611367603698166</v>
+        <v>2.514776458615037</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29322832478299843</v>
+        <v>0.15671117282817637</v>
       </c>
       <c r="B277">
         <f t="shared" ca="1" si="22"/>
-        <v>4.9072148318551081</v>
+        <v>7.4134033256311325</v>
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="22"/>
-        <v>12.26803707963777</v>
+        <v>18.533508314077832</v>
       </c>
       <c r="D277">
         <f t="shared" ca="1" si="22"/>
-        <v>24.53607415927554</v>
+        <v>37.067016628155663</v>
       </c>
       <c r="E277">
         <f t="shared" ca="1" si="22"/>
-        <v>5.5763804907444419</v>
+        <v>8.4243219609444697</v>
       </c>
       <c r="F277">
         <f t="shared" ca="1" si="22"/>
-        <v>2.0111536196127493</v>
+        <v>3.0382800514881692</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72699707055969209</v>
+        <v>0.30662041418900066</v>
       </c>
       <c r="B278">
         <f t="shared" ca="1" si="22"/>
-        <v>1.2753313237928752</v>
+        <v>4.7285789291154998</v>
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="22"/>
-        <v>3.1883283094821877</v>
+        <v>11.82144732278875</v>
       </c>
       <c r="D278">
         <f t="shared" ca="1" si="22"/>
-        <v>6.3766566189643754</v>
+        <v>23.642894645577499</v>
       </c>
       <c r="E278">
         <f t="shared" ca="1" si="22"/>
-        <v>1.4492401406737219</v>
+        <v>5.3733851467221596</v>
       </c>
       <c r="F278">
         <f t="shared" ca="1" si="22"/>
-        <v>0.52267677204626029</v>
+        <v>1.9379421840637294</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40557937972950353</v>
+        <v>0.19396333022575785</v>
       </c>
       <c r="B279">
         <f t="shared" ca="1" si="22"/>
-        <v>3.6097546677148409</v>
+        <v>6.560344628960376</v>
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="22"/>
-        <v>9.024386669287102</v>
+        <v>16.400861572400942</v>
       </c>
       <c r="D279">
         <f t="shared" ca="1" si="22"/>
-        <v>18.048773338574204</v>
+        <v>32.801723144801883</v>
       </c>
       <c r="E279">
         <f t="shared" ca="1" si="22"/>
-        <v>4.1019939405850465</v>
+        <v>7.4549370783640638</v>
       </c>
       <c r="F279">
         <f t="shared" ca="1" si="22"/>
-        <v>1.4794076507028038</v>
+        <v>2.6886658315411376</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78281211793286731</v>
+        <v>0.28049687562653469</v>
       </c>
       <c r="B280">
         <f t="shared" ca="1" si="22"/>
-        <v>0.97945025335504843</v>
+        <v>5.0847707706709988</v>
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="22"/>
-        <v>2.4486256333876213</v>
+        <v>12.711926926677497</v>
       </c>
       <c r="D280">
         <f t="shared" ca="1" si="22"/>
-        <v>4.8972512667752426</v>
+        <v>25.423853853354995</v>
       </c>
       <c r="E280">
         <f t="shared" ca="1" si="22"/>
-        <v>1.1130116515398278</v>
+        <v>5.778148603035226</v>
       </c>
       <c r="F280">
         <f t="shared" ca="1" si="22"/>
-        <v>0.40141403826026578</v>
+        <v>2.0839224469963109</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6107181131171181</v>
+        <v>0.41645463845808894</v>
       </c>
       <c r="B281">
         <f t="shared" ca="1" si="22"/>
-        <v>1.9724791183754831</v>
+        <v>3.5039109382863791</v>
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="22"/>
-        <v>4.9311977959387079</v>
+        <v>8.759777345715948</v>
       </c>
       <c r="D281">
         <f t="shared" ca="1" si="22"/>
-        <v>9.8623955918774158</v>
+        <v>17.519554691431896</v>
       </c>
       <c r="E281">
         <f t="shared" ca="1" si="22"/>
-        <v>2.2414535436085035</v>
+        <v>3.9817169753254311</v>
       </c>
       <c r="F281">
         <f t="shared" ca="1" si="22"/>
-        <v>0.80839308130142751</v>
+        <v>1.4360290730681882</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72856762260305419</v>
+        <v>0.6334491490439359</v>
       </c>
       <c r="B282">
         <f t="shared" ca="1" si="22"/>
-        <v>1.2666993328673546</v>
+        <v>1.826302209209411</v>
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="22"/>
-        <v>3.1667483321683862</v>
+        <v>4.5657555230235278</v>
       </c>
       <c r="D282">
         <f t="shared" ca="1" si="22"/>
-        <v>6.3334966643367725</v>
+        <v>9.1315110460470557</v>
       </c>
       <c r="E282">
         <f t="shared" ca="1" si="22"/>
-        <v>1.4394310600765394</v>
+        <v>2.0753434195561491</v>
       </c>
       <c r="F282">
         <f t="shared" ca="1" si="22"/>
-        <v>0.51913907084727651</v>
+        <v>0.74848451197107013</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7587643697759765</v>
+        <v>0.8836886835195773</v>
       </c>
       <c r="B283">
         <f t="shared" ca="1" si="22"/>
-        <v>1.1042559921541488</v>
+        <v>0.49460178533789184</v>
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="22"/>
-        <v>2.7606399803853723</v>
+        <v>1.2365044633447295</v>
       </c>
       <c r="D283">
         <f t="shared" ca="1" si="22"/>
-        <v>5.5212799607707446</v>
+        <v>2.473008926689459</v>
       </c>
       <c r="E283">
         <f t="shared" ca="1" si="22"/>
-        <v>1.2548363547206238</v>
+        <v>0.56204748333851351</v>
       </c>
       <c r="F283">
         <f t="shared" ca="1" si="22"/>
-        <v>0.45256393121071675</v>
+        <v>0.20270564972864422</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76673157955509097</v>
+        <v>0.14294865582193772</v>
       </c>
       <c r="B284">
         <f t="shared" ca="1" si="22"/>
-        <v>1.0624740013292824</v>
+        <v>7.7810790535696981</v>
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="22"/>
-        <v>2.656185003323206</v>
+        <v>19.452697633924245</v>
       </c>
       <c r="D284">
         <f t="shared" ca="1" si="22"/>
-        <v>5.3123700066464119</v>
+        <v>38.90539526784849</v>
       </c>
       <c r="E284">
         <f t="shared" ca="1" si="22"/>
-        <v>1.2073568196923665</v>
+        <v>8.8421352881473858</v>
       </c>
       <c r="F284">
         <f t="shared" ca="1" si="22"/>
-        <v>0.43544016447921408</v>
+        <v>3.1889668252334831</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42184292673239177</v>
+        <v>0.28505756272424398</v>
       </c>
       <c r="B285">
         <f t="shared" ca="1" si="22"/>
-        <v>3.4524889830745953</v>
+        <v>5.0202565785462099</v>
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="22"/>
-        <v>8.6312224576864889</v>
+        <v>12.550641446365525</v>
       </c>
       <c r="D285">
         <f t="shared" ca="1" si="22"/>
-        <v>17.262444915372978</v>
+        <v>25.101282892731049</v>
       </c>
       <c r="E285">
         <f t="shared" ca="1" si="22"/>
-        <v>3.9232829353120406</v>
+        <v>5.7048370210752388</v>
       </c>
       <c r="F285">
         <f t="shared" ca="1" si="22"/>
-        <v>1.4149545012600802</v>
+        <v>2.0574822043222172</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55049651156627888</v>
+        <v>0.88125900686882541</v>
       </c>
       <c r="B286">
         <f t="shared" ca="1" si="22"/>
-        <v>2.3877386387419075</v>
+        <v>0.50561481739007585</v>
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="22"/>
-        <v>5.969346596854769</v>
+        <v>1.2640370434751897</v>
       </c>
       <c r="D286">
         <f t="shared" ca="1" si="22"/>
-        <v>11.938693193709538</v>
+        <v>2.5280740869503795</v>
       </c>
       <c r="E286">
         <f t="shared" ca="1" si="22"/>
-        <v>2.7133393622067135</v>
+        <v>0.57456229248872259</v>
       </c>
       <c r="F286">
         <f t="shared" ca="1" si="22"/>
-        <v>0.9785814093204539</v>
+        <v>0.20721918745494913</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7114257783524098E-2</v>
+        <v>2.5172447546344623E-2</v>
       </c>
       <c r="B287">
         <f t="shared" ca="1" si="22"/>
-        <v>10.249868358612751</v>
+        <v>14.728020935779558</v>
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="22"/>
-        <v>25.624670896531878</v>
+        <v>36.820052339448893</v>
       </c>
       <c r="D287">
         <f t="shared" ca="1" si="22"/>
-        <v>51.249341793063756</v>
+        <v>73.640104678897785</v>
       </c>
       <c r="E287">
         <f t="shared" ca="1" si="22"/>
-        <v>11.647577680241763</v>
+        <v>16.736387427022226</v>
       </c>
       <c r="F287">
         <f t="shared" ca="1" si="22"/>
-        <v>4.2007657207429308</v>
+        <v>6.0360741540080154</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43932399472739936</v>
+        <v>0.85181782427323538</v>
       </c>
       <c r="B288">
         <f t="shared" ca="1" si="22"/>
-        <v>3.2900724364985594</v>
+        <v>0.64153038516557881</v>
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="22"/>
-        <v>8.2251810912463981</v>
+        <v>1.6038259629139471</v>
       </c>
       <c r="D288">
         <f t="shared" ca="1" si="22"/>
-        <v>16.450362182492796</v>
+        <v>3.2076519258278942</v>
       </c>
       <c r="E288">
         <f t="shared" ca="1" si="22"/>
-        <v>3.7387186778392723</v>
+        <v>0.72901180132452148</v>
       </c>
       <c r="F288">
         <f t="shared" ca="1" si="22"/>
-        <v>1.3483903428272785</v>
+        <v>0.26292228900228642</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83016364536447296</v>
+        <v>0.35694112023374414</v>
       </c>
       <c r="B289">
         <f t="shared" ref="B289:F291" ca="1" si="23">-LN($A289)*B$11</f>
-        <v>0.74452973814341816</v>
+        <v>4.1207377604883071</v>
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="23"/>
-        <v>1.8613243453585455</v>
+        <v>10.301844401220768</v>
       </c>
       <c r="D289">
         <f t="shared" ca="1" si="23"/>
-        <v>3.722648690717091</v>
+        <v>20.603688802441535</v>
       </c>
       <c r="E289">
         <f t="shared" ca="1" si="23"/>
-        <v>0.84605652061752068</v>
+        <v>4.68265654600944</v>
       </c>
       <c r="F289">
         <f t="shared" ca="1" si="23"/>
-        <v>0.3051351385833681</v>
+        <v>1.688826951019798</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58377992805289314</v>
+        <v>0.94377254535506128</v>
       </c>
       <c r="B290">
         <f t="shared" ca="1" si="23"/>
-        <v>2.152924810800509</v>
+        <v>0.23148035834518921</v>
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="23"/>
-        <v>5.382312027001273</v>
+        <v>0.57870089586297302</v>
       </c>
       <c r="D290">
         <f t="shared" ca="1" si="23"/>
-        <v>10.764624054002546</v>
+        <v>1.157401791725946</v>
       </c>
       <c r="E290">
         <f t="shared" ca="1" si="23"/>
-        <v>2.4465054668187602</v>
+        <v>0.26304586175589684</v>
       </c>
       <c r="F290">
         <f t="shared" ca="1" si="23"/>
-        <v>0.88234623393463485</v>
+        <v>9.4868999321798861E-2</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36518431497379167</v>
+        <v>0.52396067810688562</v>
       </c>
       <c r="B291">
         <f t="shared" ca="1" si="23"/>
-        <v>4.0294123212977278</v>
+        <v>2.5853545570304912</v>
       </c>
       <c r="C291">
         <f t="shared" ca="1" si="23"/>
-        <v>10.073530803244319</v>
+        <v>6.4633863925762283</v>
       </c>
       <c r="D291">
         <f t="shared" ca="1" si="23"/>
-        <v>20.147061606488638</v>
+        <v>12.926772785152457</v>
       </c>
       <c r="E291">
         <f t="shared" ca="1" si="23"/>
-        <v>4.5788776378383274</v>
+        <v>2.9379029057164674</v>
       </c>
       <c r="F291">
         <f t="shared" ca="1" si="23"/>
-        <v>1.6513984923351344</v>
+        <v>1.0595715397665948</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
